--- a/data/gas_prices copy.xlsx
+++ b/data/gas_prices copy.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K309"/>
+  <dimension ref="A1:K389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13629,10 +13629,8 @@
       <c r="K289" t="inlineStr"/>
     </row>
     <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>65515</t>
-        </is>
+      <c r="A290" t="n">
+        <v>65515</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
@@ -13674,10 +13672,8 @@
       <c r="K290" t="inlineStr"/>
     </row>
     <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>77205</t>
-        </is>
+      <c r="A291" t="n">
+        <v>77205</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
@@ -13719,10 +13715,8 @@
       <c r="K291" t="inlineStr"/>
     </row>
     <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>77223</t>
-        </is>
+      <c r="A292" t="n">
+        <v>77223</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
@@ -13764,10 +13758,8 @@
       <c r="K292" t="inlineStr"/>
     </row>
     <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>65514</t>
-        </is>
+      <c r="A293" t="n">
+        <v>65514</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
@@ -13809,10 +13801,8 @@
       <c r="K293" t="inlineStr"/>
     </row>
     <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>77232</t>
-        </is>
+      <c r="A294" t="n">
+        <v>77232</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
@@ -13854,10 +13844,8 @@
       <c r="K294" t="inlineStr"/>
     </row>
     <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>77202</t>
-        </is>
+      <c r="A295" t="n">
+        <v>77202</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
@@ -13899,10 +13887,8 @@
       <c r="K295" t="inlineStr"/>
     </row>
     <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>86650</t>
-        </is>
+      <c r="A296" t="n">
+        <v>86650</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
@@ -13944,10 +13930,8 @@
       <c r="K296" t="inlineStr"/>
     </row>
     <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>77218</t>
-        </is>
+      <c r="A297" t="n">
+        <v>77218</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
@@ -13989,10 +13973,8 @@
       <c r="K297" t="inlineStr"/>
     </row>
     <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>77243</t>
-        </is>
+      <c r="A298" t="n">
+        <v>77243</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
@@ -14034,10 +14016,8 @@
       <c r="K298" t="inlineStr"/>
     </row>
     <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>77235</t>
-        </is>
+      <c r="A299" t="n">
+        <v>77235</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
@@ -14079,10 +14059,8 @@
       <c r="K299" t="inlineStr"/>
     </row>
     <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>77228</t>
-        </is>
+      <c r="A300" t="n">
+        <v>77228</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
@@ -14124,10 +14102,8 @@
       <c r="K300" t="inlineStr"/>
     </row>
     <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>69163</t>
-        </is>
+      <c r="A301" t="n">
+        <v>69163</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
@@ -14169,10 +14145,8 @@
       <c r="K301" t="inlineStr"/>
     </row>
     <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>109205</t>
-        </is>
+      <c r="A302" t="n">
+        <v>109205</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
@@ -14214,10 +14188,8 @@
       <c r="K302" t="inlineStr"/>
     </row>
     <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>65512</t>
-        </is>
+      <c r="A303" t="n">
+        <v>65512</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
@@ -14259,10 +14231,8 @@
       <c r="K303" t="inlineStr"/>
     </row>
     <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>83384</t>
-        </is>
+      <c r="A304" t="n">
+        <v>83384</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
@@ -14304,10 +14274,8 @@
       <c r="K304" t="inlineStr"/>
     </row>
     <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>77015</t>
-        </is>
+      <c r="A305" t="n">
+        <v>77015</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
@@ -14349,10 +14317,8 @@
       <c r="K305" t="inlineStr"/>
     </row>
     <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>107728</t>
-        </is>
+      <c r="A306" t="n">
+        <v>107728</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
@@ -14394,10 +14360,8 @@
       <c r="K306" t="inlineStr"/>
     </row>
     <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>65572</t>
-        </is>
+      <c r="A307" t="n">
+        <v>65572</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
@@ -14439,10 +14403,8 @@
       <c r="K307" t="inlineStr"/>
     </row>
     <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>65511</t>
-        </is>
+      <c r="A308" t="n">
+        <v>65511</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
@@ -14484,10 +14446,8 @@
       <c r="K308" t="inlineStr"/>
     </row>
     <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>65556</t>
-        </is>
+      <c r="A309" t="n">
+        <v>65556</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
@@ -14527,6 +14487,3438 @@
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>65542</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Chevron</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>3250 MacDonald St</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.2573819, 'Longitude': -123.1680407}</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:53:42</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>2025-06-01T09:14:50.302Z</t>
+        </is>
+      </c>
+      <c r="G310" t="n">
+        <v>161.9</v>
+      </c>
+      <c r="H310" t="inlineStr"/>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>65533</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Chevron</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>4615 Arbutus St</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.2449719, 'Longitude': -123.1540385}</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:53:42</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>2025-06-01T02:10:53.532Z</t>
+        </is>
+      </c>
+      <c r="G311" t="n">
+        <v>160.9</v>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>2025-06-01T02:10:53.563Z</t>
+        </is>
+      </c>
+      <c r="I311" t="n">
+        <v>185.9</v>
+      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>83068</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Esso</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>3205 Arbutus St</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.256927568207, 'Longitude': -123.153288960457}</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:53:42</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr"/>
+      <c r="G312" t="inlineStr"/>
+      <c r="H312" t="inlineStr"/>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>65562</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Petro-Canada</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>2808 W Broadway</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.263883932125, 'Longitude': -123.168604373932}</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:53:42</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>2025-06-01T01:23:39.355Z</t>
+        </is>
+      </c>
+      <c r="G313" t="n">
+        <v>156.9</v>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>2025-05-31T20:01:03.497Z</t>
+        </is>
+      </c>
+      <c r="I313" t="n">
+        <v>182.9</v>
+      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>113305</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Shell</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>3596 W 41st Ave</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.234385296079, 'Longitude': -123.184762001038}</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:53:42</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>2025-05-31T23:56:16.495Z</t>
+        </is>
+      </c>
+      <c r="G314" t="n">
+        <v>160.9</v>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>2025-05-31T23:57:11.768Z</t>
+        </is>
+      </c>
+      <c r="I314" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>65570</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Shell</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>2103 W Broadway</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.264135981257, 'Longitude': -123.153326511383}</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:53:42</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>2025-06-01T14:48:37.518Z</t>
+        </is>
+      </c>
+      <c r="G315" t="n">
+        <v>161.9</v>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>2025-05-31T03:25:54.254Z</t>
+        </is>
+      </c>
+      <c r="I315" t="n">
+        <v>186.9</v>
+      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>65554</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Esso</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>1795 W Broadway</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.264037962303, 'Longitude': -123.145408630371}</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:53:42</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>2025-06-01T05:11:58.279Z</t>
+        </is>
+      </c>
+      <c r="G316" t="n">
+        <v>159.9</v>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>2025-06-01T05:11:58.326Z</t>
+        </is>
+      </c>
+      <c r="I316" t="n">
+        <v>186.9</v>
+      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>65571</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Shell</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>4314 W 10th Ave</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.263533861752, 'Longitude': -123.203430175781}</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:53:42</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>2025-05-31T16:36:48.315Z</t>
+        </is>
+      </c>
+      <c r="G317" t="n">
+        <v>160.9</v>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>2025-05-31T16:36:48.330Z</t>
+        </is>
+      </c>
+      <c r="I317" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>65565</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Petro-Canada</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>1896 W 4th Ave</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.267881559667, 'Longitude': -123.14772605896}</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:53:42</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>2025-06-01T05:42:32.930Z</t>
+        </is>
+      </c>
+      <c r="G318" t="n">
+        <v>156.9</v>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>2025-06-01T05:42:32.977Z</t>
+        </is>
+      </c>
+      <c r="I318" t="n">
+        <v>181.9</v>
+      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>32376</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Shell</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>1503 W 41st Ave</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.234634576953, 'Longitude': -123.139971792698}</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:53:42</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>2025-06-01T07:39:04.127Z</t>
+        </is>
+      </c>
+      <c r="G319" t="n">
+        <v>161.9</v>
+      </c>
+      <c r="H319" t="inlineStr"/>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>65549</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Esso</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>5702 Granville St</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.234036184118, 'Longitude': -123.139244914055}</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:53:42</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>2025-06-01T07:38:44.942Z</t>
+        </is>
+      </c>
+      <c r="G320" t="n">
+        <v>159.9</v>
+      </c>
+      <c r="H320" t="inlineStr"/>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>65543</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Chevron</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>1900 Burrard St</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.2685375, 'Longitude': -123.1453067}</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:53:42</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>2025-06-01T07:44:32.009Z</t>
+        </is>
+      </c>
+      <c r="G321" t="n">
+        <v>161.9</v>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>2025-06-01T05:12:31.316Z</t>
+        </is>
+      </c>
+      <c r="I321" t="n">
+        <v>185.9</v>
+      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>65563</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Petro-Canada</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>1743 Burrard St</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.270429790667, 'Longitude': -123.145886063576}</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:53:42</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>2025-06-01T07:47:41.336Z</t>
+        </is>
+      </c>
+      <c r="G322" t="n">
+        <v>161.9</v>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>2025-06-01T05:12:23.017Z</t>
+        </is>
+      </c>
+      <c r="I322" t="n">
+        <v>181.9</v>
+      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>72747</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Esso</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>1010 W King Edward Ave</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.249188, 'Longitude': -123.127767}</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:53:42</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>2025-06-01T05:11:56.981Z</t>
+        </is>
+      </c>
+      <c r="G323" t="n">
+        <v>153.9</v>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>2025-06-01T05:11:57.216Z</t>
+        </is>
+      </c>
+      <c r="I323" t="n">
+        <v>204.9</v>
+      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>32375</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Shell</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>4110 Oak St</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.24894071957, 'Longitude': -123.127040863037}</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:53:42</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>2025-06-01T06:38:02.410Z</t>
+        </is>
+      </c>
+      <c r="G324" t="n">
+        <v>146.9</v>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>2025-06-01T02:35:00.276Z</t>
+        </is>
+      </c>
+      <c r="I324" t="n">
+        <v>208.9</v>
+      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>65564</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Petro-Canada</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>5680 Oak St</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.234217162181, 'Longitude': -123.127684593201}</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:53:42</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>2025-06-01T05:59:51.947Z</t>
+        </is>
+      </c>
+      <c r="G325" t="n">
+        <v>146.9</v>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>2025-06-01T13:34:26.116Z</t>
+        </is>
+      </c>
+      <c r="I325" t="n">
+        <v>171.9</v>
+      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>32372</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Esso</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>6525 Oak St</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.226226639452, 'Longitude': -123.128687739372}</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:53:42</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>2025-06-01T09:24:48.427Z</t>
+        </is>
+      </c>
+      <c r="G326" t="n">
+        <v>159.9</v>
+      </c>
+      <c r="H326" t="inlineStr"/>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>9707</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Esso</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>1205 Burrard St</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.279145231489, 'Longitude': -123.12982365489}</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:53:42</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>2025-06-01T12:39:33.610Z</t>
+        </is>
+      </c>
+      <c r="G327" t="n">
+        <v>155.9</v>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>2025-06-01T01:39:50.050Z</t>
+        </is>
+      </c>
+      <c r="I327" t="n">
+        <v>200.9</v>
+      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>65566</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Petro-Canada</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>8072 Granville St</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.212495055855, 'Longitude': -123.14013004303}</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:53:42</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>2025-06-01T07:35:51.923Z</t>
+        </is>
+      </c>
+      <c r="G328" t="n">
+        <v>161.9</v>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>2025-06-01T13:34:18.256Z</t>
+        </is>
+      </c>
+      <c r="I328" t="n">
+        <v>174.9</v>
+      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>65572</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Shell</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>8686 Granville St</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.207280329467, 'Longitude': -123.140280246735}</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:53:42</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>2025-05-31T07:05:25.815Z</t>
+        </is>
+      </c>
+      <c r="G329" t="n">
+        <v>176.9</v>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>2025-05-31T07:05:25.925Z</t>
+        </is>
+      </c>
+      <c r="I329" t="n">
+        <v>208.9</v>
+      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>65558</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Petro-Canada</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>1390 E 33rd Ave</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.240045470021, 'Longitude': -123.076765537262}</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:56:35</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>2025-06-01T06:59:55.504Z</t>
+        </is>
+      </c>
+      <c r="G330" t="n">
+        <v>161.9</v>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>2025-06-01T08:32:06.533Z</t>
+        </is>
+      </c>
+      <c r="I330" t="n">
+        <v>172.9</v>
+      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>83394</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Esso</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>4064 Fraser St</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.248864, 'Longitude': -123.09002}</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:56:35</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>2025-06-01T06:21:26.209Z</t>
+        </is>
+      </c>
+      <c r="G331" t="n">
+        <v>159.9</v>
+      </c>
+      <c r="H331" t="inlineStr"/>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>65573</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Shell</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>1396 E 41st Ave</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.232593005895, 'Longitude': -123.07728856802}</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:56:35</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>2025-06-01T12:09:36.710Z</t>
+        </is>
+      </c>
+      <c r="G332" t="n">
+        <v>161.9</v>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>2025-05-31T09:55:02.588Z</t>
+        </is>
+      </c>
+      <c r="I332" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>80714</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Husky</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>4933 Victoria Dr</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.2397388, 'Longitude': -123.065748}</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:56:35</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>2025-06-01T07:54:00.470Z</t>
+        </is>
+      </c>
+      <c r="G333" t="n">
+        <v>156.9</v>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>2025-06-01T07:19:58.451Z</t>
+        </is>
+      </c>
+      <c r="I333" t="n">
+        <v>181.9</v>
+      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>65552</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Esso</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>2001 Kingsway</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.245312771918, 'Longitude': -123.064910173416}</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:56:35</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>2025-06-01T07:53:35.920Z</t>
+        </is>
+      </c>
+      <c r="G334" t="n">
+        <v>159.9</v>
+      </c>
+      <c r="H334" t="inlineStr"/>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>65538</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Chevron</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>5252 Victoria Dr</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.2372145, 'Longitude': -123.0650857}</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:56:35</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>2025-06-01T07:53:40.472Z</t>
+        </is>
+      </c>
+      <c r="G335" t="n">
+        <v>156.9</v>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>2025-05-31T18:02:26.415Z</t>
+        </is>
+      </c>
+      <c r="I335" t="n">
+        <v>191.9</v>
+      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>90814</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Petro-Canada</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>2277 Kingsway</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.242132845692, 'Longitude': -123.058204650879}</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:56:35</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>2025-06-01T07:19:51.107Z</t>
+        </is>
+      </c>
+      <c r="G336" t="n">
+        <v>150.9</v>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>2025-06-01T07:19:51.188Z</t>
+        </is>
+      </c>
+      <c r="I336" t="n">
+        <v>175.9</v>
+      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>39768</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Chevron</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>5736 Main St</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.2325708, 'Longitude': -123.1010069}</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:56:35</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>2025-06-01T07:29:08.825Z</t>
+        </is>
+      </c>
+      <c r="G337" t="n">
+        <v>151.9</v>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>2025-06-01T05:12:17.857Z</t>
+        </is>
+      </c>
+      <c r="I337" t="n">
+        <v>177.9</v>
+      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>9710</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Shell</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>1295 E 12th Ave</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.259878978744, 'Longitude': -123.078074455261}</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:56:35</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>2025-06-01T07:14:51.193Z</t>
+        </is>
+      </c>
+      <c r="G338" t="n">
+        <v>143.9</v>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>2025-06-01T07:21:09.237Z</t>
+        </is>
+      </c>
+      <c r="I338" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>99146</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Super Save Gas</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>1317 E 12th Ave</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.259758544957, 'Longitude': -123.077272474766}</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:56:35</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>2025-06-01T07:14:42.090Z</t>
+        </is>
+      </c>
+      <c r="G339" t="n">
+        <v>143.9</v>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>2025-06-01T07:20:06.615Z</t>
+        </is>
+      </c>
+      <c r="I339" t="n">
+        <v>176.9</v>
+      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>65560</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Petro-Canada</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>1289 E Broadway</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.262693682723, 'Longitude': -123.078117370605}</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:56:35</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>2025-06-01T08:30:06.167Z</t>
+        </is>
+      </c>
+      <c r="G340" t="n">
+        <v>161.9</v>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>2025-06-01T07:14:23.876Z</t>
+        </is>
+      </c>
+      <c r="I340" t="n">
+        <v>199.9</v>
+      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>65557</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Chevron</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>2120 Grandview Hwy S</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.2591601, 'Longitude': -123.0617495}</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:56:35</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>2025-06-01T08:31:50.639Z</t>
+        </is>
+      </c>
+      <c r="G341" t="n">
+        <v>150.9</v>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>2025-06-01T07:19:24.708Z</t>
+        </is>
+      </c>
+      <c r="I341" t="n">
+        <v>191.9</v>
+      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>71502</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Chevron</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>2748 Main St</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.2604441, 'Longitude': -123.1005869}</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:56:35</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>2025-06-01T08:27:47.662Z</t>
+        </is>
+      </c>
+      <c r="G342" t="n">
+        <v>151.9</v>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>2025-06-01T07:15:28.765Z</t>
+        </is>
+      </c>
+      <c r="I342" t="n">
+        <v>177.9</v>
+      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>65559</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Petro-Canada</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>6502 Victoria Dr</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.224996944057, 'Longitude': -123.065521717072}</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:56:35</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>2025-06-01T05:43:07.963Z</t>
+        </is>
+      </c>
+      <c r="G343" t="n">
+        <v>156.9</v>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>2025-06-01T07:20:11.563Z</t>
+        </is>
+      </c>
+      <c r="I343" t="n">
+        <v>181.9</v>
+      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>89943</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Chevron</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>6808 Victoria Dr</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.2220242, 'Longitude': -123.0654247}</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:56:35</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>2025-06-01T05:45:52.270Z</t>
+        </is>
+      </c>
+      <c r="G344" t="n">
+        <v>156.9</v>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>2025-06-01T05:45:52.301Z</t>
+        </is>
+      </c>
+      <c r="I344" t="n">
+        <v>182.9</v>
+      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>86880</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Petro-Canada</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>7282 Knight St</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.218250007984, 'Longitude': -123.076816499233}</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:56:35</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>2025-06-01T10:01:43.769Z</t>
+        </is>
+      </c>
+      <c r="G345" t="n">
+        <v>156.9</v>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>2025-06-01T06:49:00.026Z</t>
+        </is>
+      </c>
+      <c r="I345" t="n">
+        <v>192.9</v>
+      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>65537</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Chevron</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>2918 Kingsway</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.23608, 'Longitude': -123.0454858}</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:56:35</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>2025-06-01T08:44:31.473Z</t>
+        </is>
+      </c>
+      <c r="G346" t="n">
+        <v>161.9</v>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>2025-06-01T07:20:41.437Z</t>
+        </is>
+      </c>
+      <c r="I346" t="n">
+        <v>186.9</v>
+      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>65536</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Chevron</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>7309 Knight St</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.2177761, 'Longitude': -123.0775405}</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:56:35</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>2025-06-01T10:49:47.608Z</t>
+        </is>
+      </c>
+      <c r="G347" t="n">
+        <v>161.9</v>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>2025-06-01T06:49:13.464Z</t>
+        </is>
+      </c>
+      <c r="I347" t="n">
+        <v>200.9</v>
+      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>65535</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Chevron</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>2605 E 49th Ave</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.2251291, 'Longitude': -123.0545048}</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:56:35</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>2025-06-01T05:47:56.888Z</t>
+        </is>
+      </c>
+      <c r="G348" t="n">
+        <v>161.9</v>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>2025-06-01T05:47:56.950Z</t>
+        </is>
+      </c>
+      <c r="I348" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>65539</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Chevron</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>2902 Grandview Hwy</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.2579053, 'Longitude': -123.0438464}</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:56:35</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>2025-06-01T07:15:39.400Z</t>
+        </is>
+      </c>
+      <c r="G349" t="n">
+        <v>150.9</v>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>2025-06-01T07:15:39.462Z</t>
+        </is>
+      </c>
+      <c r="I349" t="n">
+        <v>191.9</v>
+      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>77015</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Super Save Gas</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>6000 No 5 Rd</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.169873456637, 'Longitude': -123.091178619746}</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:59:26</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>2025-06-01T04:23:21.131Z</t>
+        </is>
+      </c>
+      <c r="G350" t="n">
+        <v>146.9</v>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>2025-06-01T13:33:21.366Z</t>
+        </is>
+      </c>
+      <c r="I350" t="n">
+        <v>171.9</v>
+      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>65511</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Chevron</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12011 Bridgeport Rd</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.1923857, 'Longitude': -123.0911072}</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:59:26</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>2025-06-01T14:12:40.071Z</t>
+        </is>
+      </c>
+      <c r="G351" t="n">
+        <v>161.9</v>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>2025-06-01T08:39:35.945Z</t>
+        </is>
+      </c>
+      <c r="I351" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>86650</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Esso</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>9100 Westminster Hwy</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.169856952787, 'Longitude': -123.123961687088}</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:59:26</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>2025-06-01T05:48:13.960Z</t>
+        </is>
+      </c>
+      <c r="G352" t="n">
+        <v>146.9</v>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>2025-06-01T05:57:30.357Z</t>
+        </is>
+      </c>
+      <c r="I352" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>77218</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Shell</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>5511 Garden City Rd</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.173339635958, 'Longitude': -123.124954104424}</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:59:26</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>2025-06-01T08:29:51.093Z</t>
+        </is>
+      </c>
+      <c r="G353" t="n">
+        <v>145.9</v>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>2025-06-01T01:47:40.302Z</t>
+        </is>
+      </c>
+      <c r="I353" t="n">
+        <v>200.9</v>
+      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>77228</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Chevron</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>9100 Cambie Rd</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.1843249, 'Longitude': -123.1236078}</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:59:26</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>2025-06-01T07:07:32.704Z</t>
+        </is>
+      </c>
+      <c r="G354" t="n">
+        <v>145.9</v>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>2025-05-31T23:49:46.480Z</t>
+        </is>
+      </c>
+      <c r="I354" t="n">
+        <v>181.9</v>
+      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>83384</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Esso</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>9060 Bridgeport Rd</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.192001, 'Longitude': -123.124004}</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:59:26</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>2025-06-01T05:24:07.338Z</t>
+        </is>
+      </c>
+      <c r="G355" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>2025-06-01T04:44:26.424Z</t>
+        </is>
+      </c>
+      <c r="I355" t="n">
+        <v>189.9</v>
+      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>77202</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Petro-Canada</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>8151 Granville Ave</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.162989071149, 'Longitude': -123.134229183197}</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:59:26</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>2025-06-01T06:36:56.417Z</t>
+        </is>
+      </c>
+      <c r="G356" t="n">
+        <v>144.9</v>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>2025-06-01T13:33:32.437Z</t>
+        </is>
+      </c>
+      <c r="I356" t="n">
+        <v>173.9</v>
+      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>77243</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Mobil</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>4651 No  3 Rd</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.179182137142, 'Longitude': -123.137152791023}</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:59:26</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>2025-06-01T07:08:26.913Z</t>
+        </is>
+      </c>
+      <c r="G357" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>2025-06-01T06:33:33.347Z</t>
+        </is>
+      </c>
+      <c r="I357" t="n">
+        <v>173.9</v>
+      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>83387</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Petro-Canada</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>710 SE Marine Dr</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.21081995506, 'Longitude': -123.090755939484}</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:59:26</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>2025-06-01T06:54:00.199Z</t>
+        </is>
+      </c>
+      <c r="G358" t="n">
+        <v>149.9</v>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>2025-06-01T02:52:14.151Z</t>
+        </is>
+      </c>
+      <c r="I358" t="n">
+        <v>178.9</v>
+      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>65551</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Esso</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>688 SE Marine Dr</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.210798928329, 'Longitude': -123.09152841568}</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:59:26</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>2025-06-01T08:23:17.734Z</t>
+        </is>
+      </c>
+      <c r="G359" t="n">
+        <v>147.9</v>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>2025-05-31T22:41:12.850Z</t>
+        </is>
+      </c>
+      <c r="I359" t="n">
+        <v>189.9</v>
+      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>77235</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Domo</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4071 No 3 Rd </t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.18409178594, 'Longitude': -123.136823830688}</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:59:26</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>2025-06-01T02:59:56.911Z</t>
+        </is>
+      </c>
+      <c r="G360" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>2025-06-01T13:33:41.808Z</t>
+        </is>
+      </c>
+      <c r="I360" t="n">
+        <v>173.9</v>
+      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>82925</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Mobil</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>350 SE Marine Dr</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.210245, 'Longitude': -123.099328}</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:59:26</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>2025-06-01T04:38:22.123Z</t>
+        </is>
+      </c>
+      <c r="G361" t="n">
+        <v>147.9</v>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>2025-05-31T22:41:36.541Z</t>
+        </is>
+      </c>
+      <c r="I361" t="n">
+        <v>191.9</v>
+      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>109205</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Petro-Canada</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>11991 Steveston Hwy</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.133556536531, 'Longitude': -123.092424273491}</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:59:26</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>2025-06-01T05:31:31.114Z</t>
+        </is>
+      </c>
+      <c r="G362" t="n">
+        <v>145.9</v>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>2025-06-01T13:33:11.500Z</t>
+        </is>
+      </c>
+      <c r="I362" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>65540</v>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Chevron</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>196 SE Marine Dr</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.2106867, 'Longitude': -123.1027436}</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:59:26</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>2025-06-01T11:42:57.059Z</t>
+        </is>
+      </c>
+      <c r="G363" t="n">
+        <v>147.9</v>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>2025-05-31T22:41:59.850Z</t>
+        </is>
+      </c>
+      <c r="I363" t="n">
+        <v>192.7</v>
+      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>65512</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>Chevron</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>11131 No 5 Rd</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.1328393, 'Longitude': -123.0926312}</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:59:26</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>2025-06-01T05:48:20.195Z</t>
+        </is>
+      </c>
+      <c r="G364" t="n">
+        <v>145.9</v>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>2025-06-01T12:14:35.750Z</t>
+        </is>
+      </c>
+      <c r="I364" t="n">
+        <v>204.9</v>
+      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>77205</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Chevron</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7951 No 3 Rd </t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.1558882, 'Longitude': -123.1369625}</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:59:26</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>2025-06-01T07:01:37.299Z</t>
+        </is>
+      </c>
+      <c r="G365" t="n">
+        <v>145.9</v>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>2025-06-01T00:58:26.467Z</t>
+        </is>
+      </c>
+      <c r="I365" t="n">
+        <v>194.9</v>
+      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>65536</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Chevron</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>7309 Knight St</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.2177761, 'Longitude': -123.0775405}</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:59:26</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>2025-06-01T10:49:47.608Z</t>
+        </is>
+      </c>
+      <c r="G366" t="n">
+        <v>161.9</v>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>2025-06-01T06:49:13.464Z</t>
+        </is>
+      </c>
+      <c r="I366" t="n">
+        <v>200.9</v>
+      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>86880</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Petro-Canada</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>7282 Knight St</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.218250007984, 'Longitude': -123.076816499233}</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:59:26</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>2025-06-01T10:01:43.769Z</t>
+        </is>
+      </c>
+      <c r="G367" t="n">
+        <v>156.9</v>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>2025-06-01T06:49:00.026Z</t>
+        </is>
+      </c>
+      <c r="I367" t="n">
+        <v>192.9</v>
+      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>65556</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>Esso</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>709 SW Marine Dr</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.20806537721, 'Longitude': -123.123285770416}</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:59:26</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>2025-06-01T12:30:47.378Z</t>
+        </is>
+      </c>
+      <c r="G368" t="n">
+        <v>152.9</v>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>2025-06-01T05:12:03.073Z</t>
+        </is>
+      </c>
+      <c r="I368" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>86937</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Shell</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>8655 Boundary Rd</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.20476, 'Longitude': -123.02398}</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:59:26</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>2025-06-01T14:35:32.859Z</t>
+        </is>
+      </c>
+      <c r="G369" t="n">
+        <v>156.9</v>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>2025-06-01T14:35:32.891Z</t>
+        </is>
+      </c>
+      <c r="I369" t="n">
+        <v>202.9</v>
+      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>65515</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>Petro-Canada</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>4011 Francis Rd</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.14867500071, 'Longitude': -123.180856704712}</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>2025-06-01 23:02:17</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>2025-06-01T04:41:32.090Z</t>
+        </is>
+      </c>
+      <c r="G370" t="n">
+        <v>146.9</v>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>2025-06-01T11:27:10.927Z</t>
+        </is>
+      </c>
+      <c r="I370" t="n">
+        <v>202.9</v>
+      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>77205</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>Chevron</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7951 No 3 Rd </t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.1558882, 'Longitude': -123.1369625}</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>2025-06-01 23:02:17</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>2025-06-01T07:01:37.299Z</t>
+        </is>
+      </c>
+      <c r="G371" t="n">
+        <v>145.9</v>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>2025-06-01T00:58:26.467Z</t>
+        </is>
+      </c>
+      <c r="I371" t="n">
+        <v>194.9</v>
+      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>77223</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Esso</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>7991 No 1 Rd</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.155888686563, 'Longitude': -123.181414604187}</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>2025-06-01 23:02:17</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>2025-06-01T11:25:38.309Z</t>
+        </is>
+      </c>
+      <c r="G372" t="n">
+        <v>146.9</v>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>2025-06-01T11:26:04.566Z</t>
+        </is>
+      </c>
+      <c r="I372" t="n">
+        <v>191.9</v>
+      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>65514</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>Petro-Canada</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>7980 Williams Rd</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.140582914547, 'Longitude': -123.137168884277}</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>2025-06-01 23:02:17</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>2025-06-01T07:02:22.809Z</t>
+        </is>
+      </c>
+      <c r="G373" t="n">
+        <v>145.9</v>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>2025-06-01T13:33:26.527Z</t>
+        </is>
+      </c>
+      <c r="I373" t="n">
+        <v>170.9</v>
+      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>77232</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>Chevron</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5900 Westminster Hwy </t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.1698419, 'Longitude': -123.159282}</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>2025-06-01 23:02:17</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>2025-06-01T07:08:41.958Z</t>
+        </is>
+      </c>
+      <c r="G374" t="n">
+        <v>145.9</v>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>2025-06-01T13:33:47.561Z</t>
+        </is>
+      </c>
+      <c r="I374" t="n">
+        <v>171.9</v>
+      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>77202</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Petro-Canada</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>8151 Granville Ave</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.162989071149, 'Longitude': -123.134229183197}</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>2025-06-01 23:02:17</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>2025-06-01T06:36:56.417Z</t>
+        </is>
+      </c>
+      <c r="G375" t="n">
+        <v>144.9</v>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>2025-06-01T13:33:32.437Z</t>
+        </is>
+      </c>
+      <c r="I375" t="n">
+        <v>173.9</v>
+      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>86650</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>Esso</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>9100 Westminster Hwy</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.169856952787, 'Longitude': -123.123961687088}</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>2025-06-01 23:02:17</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>2025-06-01T05:48:13.960Z</t>
+        </is>
+      </c>
+      <c r="G376" t="n">
+        <v>146.9</v>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>2025-06-01T05:57:30.357Z</t>
+        </is>
+      </c>
+      <c r="I376" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>77218</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>Shell</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>5511 Garden City Rd</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.173339635958, 'Longitude': -123.124954104424}</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>2025-06-01 23:02:17</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>2025-06-01T08:29:51.093Z</t>
+        </is>
+      </c>
+      <c r="G377" t="n">
+        <v>145.9</v>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>2025-06-01T01:47:40.302Z</t>
+        </is>
+      </c>
+      <c r="I377" t="n">
+        <v>200.9</v>
+      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>77243</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>Mobil</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>4651 No  3 Rd</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.179182137142, 'Longitude': -123.137152791023}</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>2025-06-01 23:02:17</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>2025-06-01T07:08:26.913Z</t>
+        </is>
+      </c>
+      <c r="G378" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>2025-06-01T06:33:33.347Z</t>
+        </is>
+      </c>
+      <c r="I378" t="n">
+        <v>173.9</v>
+      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>77235</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>Domo</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4071 No 3 Rd </t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.18409178594, 'Longitude': -123.136823830688}</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>2025-06-01 23:02:17</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>2025-06-01T02:59:56.911Z</t>
+        </is>
+      </c>
+      <c r="G379" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>2025-06-01T13:33:41.808Z</t>
+        </is>
+      </c>
+      <c r="I379" t="n">
+        <v>173.9</v>
+      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>77228</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>Chevron</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>9100 Cambie Rd</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.1843249, 'Longitude': -123.1236078}</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>2025-06-01 23:02:17</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>2025-06-01T07:07:32.704Z</t>
+        </is>
+      </c>
+      <c r="G380" t="n">
+        <v>145.9</v>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>2025-05-31T23:49:46.480Z</t>
+        </is>
+      </c>
+      <c r="I380" t="n">
+        <v>181.9</v>
+      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>69163</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>Petro-Canada</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>5111 Grant McConachie Way</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.192919, 'Longitude': -123.166797}</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>2025-06-01 23:02:17</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>2025-06-01T13:40:51.486Z</t>
+        </is>
+      </c>
+      <c r="G381" t="n">
+        <v>162.9</v>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>2025-06-01T00:05:13.562Z</t>
+        </is>
+      </c>
+      <c r="I381" t="n">
+        <v>176.9</v>
+      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>109205</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>Petro-Canada</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>11991 Steveston Hwy</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.133556536531, 'Longitude': -123.092424273491}</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>2025-06-01 23:02:17</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>2025-06-01T05:31:31.114Z</t>
+        </is>
+      </c>
+      <c r="G382" t="n">
+        <v>145.9</v>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>2025-06-01T13:33:11.500Z</t>
+        </is>
+      </c>
+      <c r="I382" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>65512</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>Chevron</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>11131 No 5 Rd</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.1328393, 'Longitude': -123.0926312}</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>2025-06-01 23:02:17</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>2025-06-01T05:48:20.195Z</t>
+        </is>
+      </c>
+      <c r="G383" t="n">
+        <v>145.9</v>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>2025-06-01T12:14:35.750Z</t>
+        </is>
+      </c>
+      <c r="I383" t="n">
+        <v>204.9</v>
+      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>83384</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>Esso</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>9060 Bridgeport Rd</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.192001, 'Longitude': -123.124004}</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>2025-06-01 23:02:17</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>2025-06-01T05:24:07.338Z</t>
+        </is>
+      </c>
+      <c r="G384" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>2025-06-01T04:44:26.424Z</t>
+        </is>
+      </c>
+      <c r="I384" t="n">
+        <v>189.9</v>
+      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>77015</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>Super Save Gas</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>6000 No 5 Rd</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.169873456637, 'Longitude': -123.091178619746}</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>2025-06-01 23:02:17</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>2025-06-01T04:23:21.131Z</t>
+        </is>
+      </c>
+      <c r="G385" t="n">
+        <v>146.9</v>
+      </c>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>2025-06-01T13:33:21.366Z</t>
+        </is>
+      </c>
+      <c r="I385" t="n">
+        <v>171.9</v>
+      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>107728</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>Chevron</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>8884 Granville St</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.2054215, 'Longitude': -123.1401677}</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>2025-06-01 23:02:17</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>2025-06-01T07:55:53.680Z</t>
+        </is>
+      </c>
+      <c r="G386" t="n">
+        <v>147.9</v>
+      </c>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>2025-06-01T08:31:35.181Z</t>
+        </is>
+      </c>
+      <c r="I386" t="n">
+        <v>173.9</v>
+      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>65572</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>Shell</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>8686 Granville St</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.207280329467, 'Longitude': -123.140280246735}</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>2025-06-01 23:02:17</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>2025-05-31T07:05:25.815Z</t>
+        </is>
+      </c>
+      <c r="G387" t="n">
+        <v>176.9</v>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>2025-05-31T07:05:25.925Z</t>
+        </is>
+      </c>
+      <c r="I387" t="n">
+        <v>208.9</v>
+      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>65511</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>Chevron</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12011 Bridgeport Rd</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.1923857, 'Longitude': -123.0911072}</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>2025-06-01 23:02:17</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>2025-06-01T14:12:40.071Z</t>
+        </is>
+      </c>
+      <c r="G388" t="n">
+        <v>161.9</v>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>2025-06-01T08:39:35.945Z</t>
+        </is>
+      </c>
+      <c r="I388" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>65556</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>Esso</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>709 SW Marine Dr</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.20806537721, 'Longitude': -123.123285770416}</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>2025-06-01 23:02:17</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>2025-06-01T12:30:47.378Z</t>
+        </is>
+      </c>
+      <c r="G389" t="n">
+        <v>152.9</v>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>2025-06-01T05:12:03.073Z</t>
+        </is>
+      </c>
+      <c r="I389" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/gas_prices copy.xlsx
+++ b/data/gas_prices copy.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K389"/>
+  <dimension ref="A1:I449"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,16 +483,6 @@
           <t>Premium Price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Time Tag</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Query Date</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -532,14 +522,6 @@
       <c r="I2" t="n">
         <v>200.9</v>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -579,14 +561,6 @@
       <c r="I3" t="n">
         <v>199.9</v>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K3" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -626,14 +600,6 @@
       <c r="I4" t="n">
         <v>200.9</v>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -673,14 +639,6 @@
       <c r="I5" t="n">
         <v>199.9</v>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -720,14 +678,6 @@
       <c r="I6" t="n">
         <v>188.9</v>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -767,14 +717,6 @@
       <c r="I7" t="n">
         <v>188.9</v>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -814,14 +756,6 @@
       <c r="I8" t="n">
         <v>184.9</v>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -861,14 +795,6 @@
       <c r="I9" t="n">
         <v>189.9</v>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -908,14 +834,6 @@
       <c r="I10" t="n">
         <v>189.9</v>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -955,14 +873,6 @@
       <c r="I11" t="n">
         <v>189.9</v>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1002,14 +912,6 @@
       <c r="I12" t="n">
         <v>189.9</v>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1049,14 +951,6 @@
       <c r="I13" t="n">
         <v>208.9</v>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1096,14 +990,6 @@
       <c r="I14" t="n">
         <v>208.9</v>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1143,14 +1029,6 @@
       <c r="I15" t="n">
         <v>208.9</v>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1190,14 +1068,6 @@
       <c r="I16" t="n">
         <v>208.9</v>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1237,14 +1107,6 @@
       <c r="I17" t="n">
         <v>196.9</v>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1278,14 +1140,6 @@
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1319,14 +1173,6 @@
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1366,14 +1212,6 @@
       <c r="I20" t="n">
         <v>196.9</v>
       </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1413,14 +1251,6 @@
       <c r="I21" t="n">
         <v>180.9</v>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1460,14 +1290,6 @@
       <c r="I22" t="n">
         <v>180.9</v>
       </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1507,14 +1329,6 @@
       <c r="I23" t="n">
         <v>177.9</v>
       </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1554,14 +1368,6 @@
       <c r="I24" t="n">
         <v>183.9</v>
       </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1601,14 +1407,6 @@
       <c r="I25" t="n">
         <v>183.9</v>
       </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1648,14 +1446,6 @@
       <c r="I26" t="n">
         <v>193.9</v>
       </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1695,14 +1485,6 @@
       <c r="I27" t="n">
         <v>193.9</v>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1742,14 +1524,6 @@
       <c r="I28" t="n">
         <v>204.9</v>
       </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1789,14 +1563,6 @@
       <c r="I29" t="n">
         <v>204.9</v>
       </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K29" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1836,14 +1602,6 @@
       <c r="I30" t="n">
         <v>204.9</v>
       </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K30" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1883,14 +1641,6 @@
       <c r="I31" t="n">
         <v>204.9</v>
       </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K31" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1930,14 +1680,6 @@
       <c r="I32" t="n">
         <v>177.9</v>
       </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K32" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1977,14 +1719,6 @@
       <c r="I33" t="n">
         <v>170.9</v>
       </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K33" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2024,14 +1758,6 @@
       <c r="I34" t="n">
         <v>173.9</v>
       </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2071,14 +1797,6 @@
       <c r="I35" t="n">
         <v>202.9</v>
       </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K35" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2118,14 +1836,6 @@
       <c r="I36" t="n">
         <v>202.9</v>
       </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K36" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2165,14 +1875,6 @@
       <c r="I37" t="n">
         <v>202.9</v>
       </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K37" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2212,14 +1914,6 @@
       <c r="I38" t="n">
         <v>185.9</v>
       </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K38" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2259,14 +1953,6 @@
       <c r="I39" t="n">
         <v>182.9</v>
       </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K39" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2306,14 +1992,6 @@
       <c r="I40" t="n">
         <v>182.9</v>
       </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K40" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2353,14 +2031,6 @@
       <c r="I41" t="n">
         <v>182.9</v>
       </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K41" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2400,14 +2070,6 @@
       <c r="I42" t="n">
         <v>190.9</v>
       </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K42" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2447,14 +2109,6 @@
       <c r="I43" t="n">
         <v>190.9</v>
       </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2494,14 +2148,6 @@
       <c r="I44" t="n">
         <v>190.9</v>
       </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K44" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2541,14 +2187,6 @@
       <c r="I45" t="n">
         <v>200.9</v>
       </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K45" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2588,14 +2226,6 @@
       <c r="I46" t="n">
         <v>200.9</v>
       </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K46" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2635,14 +2265,6 @@
       <c r="I47" t="n">
         <v>200.9</v>
       </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K47" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2682,14 +2304,6 @@
       <c r="I48" t="n">
         <v>200.9</v>
       </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K48" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2729,14 +2343,6 @@
       <c r="I49" t="n">
         <v>186.9</v>
       </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K49" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2776,14 +2382,6 @@
       <c r="I50" t="n">
         <v>186.9</v>
       </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2823,14 +2421,6 @@
       <c r="I51" t="n">
         <v>186.9</v>
       </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2870,14 +2460,6 @@
       <c r="I52" t="n">
         <v>191.9</v>
       </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K52" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2917,14 +2499,6 @@
       <c r="I53" t="n">
         <v>191.9</v>
       </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K53" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2964,14 +2538,6 @@
       <c r="I54" t="n">
         <v>191.9</v>
       </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K54" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3011,14 +2577,6 @@
       <c r="I55" t="n">
         <v>191.9</v>
       </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K55" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3058,14 +2616,6 @@
       <c r="I56" t="n">
         <v>191.9</v>
       </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K56" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3105,14 +2655,6 @@
       <c r="I57" t="n">
         <v>191.9</v>
       </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K57" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3152,14 +2694,6 @@
       <c r="I58" t="n">
         <v>192.7</v>
       </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K58" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3199,14 +2733,6 @@
       <c r="I59" t="n">
         <v>192.7</v>
       </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K59" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3246,14 +2772,6 @@
       <c r="I60" t="n">
         <v>192.7</v>
       </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K60" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3293,14 +2811,6 @@
       <c r="I61" t="n">
         <v>192.7</v>
       </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K61" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3340,14 +2850,6 @@
       <c r="I62" t="n">
         <v>196.7</v>
       </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K62" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3387,14 +2889,6 @@
       <c r="I63" t="n">
         <v>196.7</v>
       </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K63" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3434,14 +2928,6 @@
       <c r="I64" t="n">
         <v>196.7</v>
       </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K64" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3481,14 +2967,6 @@
       <c r="I65" t="n">
         <v>196.7</v>
       </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K65" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3522,14 +3000,6 @@
       </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K66" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3563,14 +3033,6 @@
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K67" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -3610,14 +3072,6 @@
       <c r="I68" t="n">
         <v>185.9</v>
       </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K68" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -3657,14 +3111,6 @@
       <c r="I69" t="n">
         <v>185.9</v>
       </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K69" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -3698,14 +3144,6 @@
       </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K70" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -3739,14 +3177,6 @@
       </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K71" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -3780,14 +3210,6 @@
       </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K72" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -3821,14 +3243,6 @@
       </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K73" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -3868,14 +3282,6 @@
       <c r="I74" t="n">
         <v>189.9</v>
       </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K74" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -3915,14 +3321,6 @@
       <c r="I75" t="n">
         <v>189.9</v>
       </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K75" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -3962,14 +3360,6 @@
       <c r="I76" t="n">
         <v>189.9</v>
       </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K76" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -4009,14 +3399,6 @@
       <c r="I77" t="n">
         <v>189.9</v>
       </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K77" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -4050,14 +3432,6 @@
       </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K78" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -4091,14 +3465,6 @@
       </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K79" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -4132,14 +3498,6 @@
       </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -4179,14 +3537,6 @@
       <c r="I81" t="n">
         <v>186.9</v>
       </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K81" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -4226,14 +3576,6 @@
       <c r="I82" t="n">
         <v>185.9</v>
       </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K82" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -4273,14 +3615,6 @@
       <c r="I83" t="n">
         <v>185.9</v>
       </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K83" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -4320,14 +3654,6 @@
       <c r="I84" t="n">
         <v>186.9</v>
       </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K84" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -4367,14 +3693,6 @@
       <c r="I85" t="n">
         <v>184.9</v>
       </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K85" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -4414,14 +3732,6 @@
       <c r="I86" t="n">
         <v>186.9</v>
       </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K86" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -4461,14 +3771,6 @@
       <c r="I87" t="n">
         <v>184.9</v>
       </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K87" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -4508,14 +3810,6 @@
       <c r="I88" t="n">
         <v>186.9</v>
       </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K88" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -4555,14 +3849,6 @@
       <c r="I89" t="n">
         <v>191.9</v>
       </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K89" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -4602,14 +3888,6 @@
       <c r="I90" t="n">
         <v>191.9</v>
       </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K90" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -4649,14 +3927,6 @@
       <c r="I91" t="n">
         <v>191.9</v>
       </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K91" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -4696,14 +3966,6 @@
       <c r="I92" t="n">
         <v>177.9</v>
       </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K92" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -4743,14 +4005,6 @@
       <c r="I93" t="n">
         <v>172.9</v>
       </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K93" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -4790,14 +4044,6 @@
       <c r="I94" t="n">
         <v>177.9</v>
       </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K94" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -4837,14 +4083,6 @@
       <c r="I95" t="n">
         <v>179.9</v>
       </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K95" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -4884,14 +4122,6 @@
       <c r="I96" t="n">
         <v>179.9</v>
       </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K96" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -4931,14 +4161,6 @@
       <c r="I97" t="n">
         <v>179.9</v>
       </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K97" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -4978,14 +4200,6 @@
       <c r="I98" t="n">
         <v>199.9</v>
       </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K98" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -5025,14 +4239,6 @@
       <c r="I99" t="n">
         <v>199.9</v>
       </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K99" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -5072,14 +4278,6 @@
       <c r="I100" t="n">
         <v>199.9</v>
       </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K100" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -5119,14 +4317,6 @@
       <c r="I101" t="n">
         <v>182.9</v>
       </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K101" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -5166,14 +4356,6 @@
       <c r="I102" t="n">
         <v>184.9</v>
       </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K102" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -5213,14 +4395,6 @@
       <c r="I103" t="n">
         <v>182.9</v>
       </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K103" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -5260,14 +4434,6 @@
       <c r="I104" t="n">
         <v>184.9</v>
       </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K104" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -5307,14 +4473,6 @@
       <c r="I105" t="n">
         <v>190.9</v>
       </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K105" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -5354,14 +4512,6 @@
       <c r="I106" t="n">
         <v>190.9</v>
       </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K106" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -5401,14 +4551,6 @@
       <c r="I107" t="n">
         <v>190.9</v>
       </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K107" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -5448,14 +4590,6 @@
       <c r="I108" t="n">
         <v>190.9</v>
       </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K108" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -5495,14 +4629,6 @@
       <c r="I109" t="n">
         <v>176.9</v>
       </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K109" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -5542,14 +4668,6 @@
       <c r="I110" t="n">
         <v>171.9</v>
       </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K110" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -5589,14 +4707,6 @@
       <c r="I111" t="n">
         <v>177.9</v>
       </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K111" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -5636,14 +4746,6 @@
       <c r="I112" t="n">
         <v>177.9</v>
       </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K112" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -5677,14 +4779,6 @@
       </c>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K113" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -5724,14 +4818,6 @@
       <c r="I114" t="n">
         <v>181.9</v>
       </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K114" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -5765,14 +4851,6 @@
       </c>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K115" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -5812,14 +4890,6 @@
       <c r="I116" t="n">
         <v>181.9</v>
       </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K116" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -5859,14 +4929,6 @@
       <c r="I117" t="n">
         <v>203.9</v>
       </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K117" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -5906,14 +4968,6 @@
       <c r="I118" t="n">
         <v>203.9</v>
       </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K118" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -5953,14 +5007,6 @@
       <c r="I119" t="n">
         <v>203.9</v>
       </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K119" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -6000,14 +5046,6 @@
       <c r="I120" t="n">
         <v>174.9</v>
       </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K120" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -6047,14 +5085,6 @@
       <c r="I121" t="n">
         <v>186.9</v>
       </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K121" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -6094,14 +5124,6 @@
       <c r="I122" t="n">
         <v>186.9</v>
       </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K122" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -6141,14 +5163,6 @@
       <c r="I123" t="n">
         <v>186.9</v>
       </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K123" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -6188,14 +5202,6 @@
       <c r="I124" t="n">
         <v>186.9</v>
       </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K124" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -6235,14 +5241,6 @@
       <c r="I125" t="n">
         <v>190.9</v>
       </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K125" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -6282,14 +5280,6 @@
       <c r="I126" t="n">
         <v>207.9</v>
       </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K126" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -6329,14 +5319,6 @@
       <c r="I127" t="n">
         <v>207.9</v>
       </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K127" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -6376,14 +5358,6 @@
       <c r="I128" t="n">
         <v>190.9</v>
       </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K128" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -6423,14 +5397,6 @@
       <c r="I129" t="n">
         <v>208.9</v>
       </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K129" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -6470,14 +5436,6 @@
       <c r="I130" t="n">
         <v>208.9</v>
       </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K130" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -6517,14 +5475,6 @@
       <c r="I131" t="n">
         <v>208.9</v>
       </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K131" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -6564,14 +5514,6 @@
       <c r="I132" t="n">
         <v>208.9</v>
       </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K132" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -6611,14 +5553,6 @@
       <c r="I133" t="n">
         <v>190.9</v>
       </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K133" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -6658,14 +5592,6 @@
       <c r="I134" t="n">
         <v>190.9</v>
       </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K134" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -6705,14 +5631,6 @@
       <c r="I135" t="n">
         <v>190.9</v>
       </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K135" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -6752,14 +5670,6 @@
       <c r="I136" t="n">
         <v>176.9</v>
       </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K136" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -6799,14 +5709,6 @@
       <c r="I137" t="n">
         <v>176.9</v>
       </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K137" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -6840,14 +5742,6 @@
       </c>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K138" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -6887,14 +5781,6 @@
       <c r="I139" t="n">
         <v>182.9</v>
       </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K139" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -6934,14 +5820,6 @@
       <c r="I140" t="n">
         <v>184.9</v>
       </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K140" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -6981,14 +5859,6 @@
       <c r="I141" t="n">
         <v>177.9</v>
       </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K141" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -7028,14 +5898,6 @@
       <c r="I142" t="n">
         <v>204.9</v>
       </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K142" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -7075,14 +5937,6 @@
       <c r="I143" t="n">
         <v>204.9</v>
       </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K143" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -7122,14 +5976,6 @@
       <c r="I144" t="n">
         <v>204.9</v>
       </c>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K144" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -7169,14 +6015,6 @@
       <c r="I145" t="n">
         <v>204.9</v>
       </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K145" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -7216,14 +6054,6 @@
       <c r="I146" t="n">
         <v>174.9</v>
       </c>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K146" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -7263,14 +6093,6 @@
       <c r="I147" t="n">
         <v>174.9</v>
       </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K147" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -7310,14 +6132,6 @@
       <c r="I148" t="n">
         <v>171.9</v>
       </c>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K148" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -7357,14 +6171,6 @@
       <c r="I149" t="n">
         <v>171.9</v>
       </c>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K149" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -7404,14 +6210,6 @@
       <c r="I150" t="n">
         <v>173.9</v>
       </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K150" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -7451,14 +6249,6 @@
       <c r="I151" t="n">
         <v>174.9</v>
       </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K151" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -7498,14 +6288,6 @@
       <c r="I152" t="n">
         <v>173.9</v>
       </c>
-      <c r="J152" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K152" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -7545,14 +6327,6 @@
       <c r="I153" t="n">
         <v>170.9</v>
       </c>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K153" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -7592,14 +6366,6 @@
       <c r="I154" t="n">
         <v>194.9</v>
       </c>
-      <c r="J154" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K154" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -7639,14 +6405,6 @@
       <c r="I155" t="n">
         <v>194.9</v>
       </c>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K155" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -7686,14 +6444,6 @@
       <c r="I156" t="n">
         <v>194.9</v>
       </c>
-      <c r="J156" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K156" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -7733,14 +6483,6 @@
       <c r="I157" t="n">
         <v>194.9</v>
       </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K157" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -7780,14 +6522,6 @@
       <c r="I158" t="n">
         <v>200.9</v>
       </c>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K158" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -7827,14 +6561,6 @@
       <c r="I159" t="n">
         <v>200.9</v>
       </c>
-      <c r="J159" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K159" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -7874,14 +6600,6 @@
       <c r="I160" t="n">
         <v>200.9</v>
       </c>
-      <c r="J160" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K160" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -7921,14 +6639,6 @@
       <c r="I161" t="n">
         <v>200.9</v>
       </c>
-      <c r="J161" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K161" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -7968,14 +6678,6 @@
       <c r="I162" t="n">
         <v>191.9</v>
       </c>
-      <c r="J162" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K162" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -8015,14 +6717,6 @@
       <c r="I163" t="n">
         <v>191.9</v>
       </c>
-      <c r="J163" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K163" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -8062,14 +6756,6 @@
       <c r="I164" t="n">
         <v>191.9</v>
       </c>
-      <c r="J164" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K164" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -8109,14 +6795,6 @@
       <c r="I165" t="n">
         <v>184.9</v>
       </c>
-      <c r="J165" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K165" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -8156,14 +6834,6 @@
       <c r="I166" t="n">
         <v>181.9</v>
       </c>
-      <c r="J166" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K166" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -8203,14 +6873,6 @@
       <c r="I167" t="n">
         <v>181.9</v>
       </c>
-      <c r="J167" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K167" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -8250,14 +6912,6 @@
       <c r="I168" t="n">
         <v>184.9</v>
       </c>
-      <c r="J168" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K168" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -8297,14 +6951,6 @@
       <c r="I169" t="n">
         <v>173.9</v>
       </c>
-      <c r="J169" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K169" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -8344,14 +6990,6 @@
       <c r="I170" t="n">
         <v>176.9</v>
       </c>
-      <c r="J170" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K170" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -8391,14 +7029,6 @@
       <c r="I171" t="n">
         <v>176.9</v>
       </c>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K171" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -8438,14 +7068,6 @@
       <c r="I172" t="n">
         <v>181.9</v>
       </c>
-      <c r="J172" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K172" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -8485,14 +7107,6 @@
       <c r="I173" t="n">
         <v>173.9</v>
       </c>
-      <c r="J173" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K173" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -8532,14 +7146,6 @@
       <c r="I174" t="n">
         <v>173.9</v>
       </c>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K174" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -8579,14 +7185,6 @@
       <c r="I175" t="n">
         <v>181.9</v>
       </c>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K175" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -8626,14 +7224,6 @@
       <c r="I176" t="n">
         <v>181.9</v>
       </c>
-      <c r="J176" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K176" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -8673,14 +7263,6 @@
       <c r="I177" t="n">
         <v>180.9</v>
       </c>
-      <c r="J177" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K177" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -8720,14 +7302,6 @@
       <c r="I178" t="n">
         <v>180.9</v>
       </c>
-      <c r="J178" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K178" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -8767,14 +7341,6 @@
       <c r="I179" t="n">
         <v>181.9</v>
       </c>
-      <c r="J179" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K179" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -8814,14 +7380,6 @@
       <c r="I180" t="n">
         <v>180.9</v>
       </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K180" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -8861,14 +7419,6 @@
       <c r="I181" t="n">
         <v>188.9</v>
       </c>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K181" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -8908,14 +7458,6 @@
       <c r="I182" t="n">
         <v>188.9</v>
       </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K182" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -8955,14 +7497,6 @@
       <c r="I183" t="n">
         <v>191.9</v>
       </c>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K183" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -9002,14 +7536,6 @@
       <c r="I184" t="n">
         <v>191.9</v>
       </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K184" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -9049,14 +7575,6 @@
       <c r="I185" t="n">
         <v>191.9</v>
       </c>
-      <c r="J185" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K185" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -9096,14 +7614,6 @@
       <c r="I186" t="n">
         <v>191.9</v>
       </c>
-      <c r="J186" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K186" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -9143,14 +7653,6 @@
       <c r="I187" t="n">
         <v>189.9</v>
       </c>
-      <c r="J187" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K187" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -9190,14 +7692,6 @@
       <c r="I188" t="n">
         <v>189.9</v>
       </c>
-      <c r="J188" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K188" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -9237,14 +7731,6 @@
       <c r="I189" t="n">
         <v>189.9</v>
       </c>
-      <c r="J189" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K189" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -9284,14 +7770,6 @@
       <c r="I190" t="n">
         <v>189.9</v>
       </c>
-      <c r="J190" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K190" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -9331,14 +7809,6 @@
       <c r="I191" t="n">
         <v>178.9</v>
       </c>
-      <c r="J191" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K191" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -9378,14 +7848,6 @@
       <c r="I192" t="n">
         <v>182.9</v>
       </c>
-      <c r="J192" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K192" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -9425,14 +7887,6 @@
       <c r="I193" t="n">
         <v>189.9</v>
       </c>
-      <c r="J193" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K193" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -9472,14 +7926,6 @@
       <c r="I194" t="n">
         <v>189.9</v>
       </c>
-      <c r="J194" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K194" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -9513,14 +7959,6 @@
       </c>
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K195" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -9554,14 +7992,6 @@
       </c>
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K196" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -9595,14 +8025,6 @@
       </c>
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K197" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -9642,14 +8064,6 @@
       <c r="I198" t="n">
         <v>188.9</v>
       </c>
-      <c r="J198" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K198" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -9689,14 +8103,6 @@
       <c r="I199" t="n">
         <v>188.9</v>
       </c>
-      <c r="J199" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K199" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -9736,14 +8142,6 @@
       <c r="I200" t="n">
         <v>188.9</v>
       </c>
-      <c r="J200" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K200" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -9783,14 +8181,6 @@
       <c r="I201" t="n">
         <v>188.9</v>
       </c>
-      <c r="J201" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K201" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -9830,14 +8220,6 @@
       <c r="I202" t="n">
         <v>192.9</v>
       </c>
-      <c r="J202" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K202" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -9877,14 +8259,6 @@
       <c r="I203" t="n">
         <v>192.9</v>
       </c>
-      <c r="J203" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K203" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -9924,14 +8298,6 @@
       <c r="I204" t="n">
         <v>192.9</v>
       </c>
-      <c r="J204" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K204" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -9971,14 +8337,6 @@
       <c r="I205" t="n">
         <v>192.9</v>
       </c>
-      <c r="J205" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K205" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -10018,14 +8376,6 @@
       <c r="I206" t="n">
         <v>202.9</v>
       </c>
-      <c r="J206" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K206" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -10065,14 +8415,6 @@
       <c r="I207" t="n">
         <v>202.9</v>
       </c>
-      <c r="J207" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K207" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -10112,14 +8454,6 @@
       <c r="I208" t="n">
         <v>202.9</v>
       </c>
-      <c r="J208" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K208" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -10159,14 +8493,6 @@
       <c r="I209" t="n">
         <v>202.9</v>
       </c>
-      <c r="J209" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K209" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -10206,14 +8532,6 @@
       <c r="I210" t="n">
         <v>190.9</v>
       </c>
-      <c r="J210" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K210" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -10253,14 +8571,6 @@
       <c r="I211" t="n">
         <v>190.9</v>
       </c>
-      <c r="J211" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K211" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -10300,14 +8610,6 @@
       <c r="I212" t="n">
         <v>190.9</v>
       </c>
-      <c r="J212" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K212" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -10347,14 +8649,6 @@
       <c r="I213" t="n">
         <v>178.9</v>
       </c>
-      <c r="J213" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K213" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -10394,14 +8688,6 @@
       <c r="I214" t="n">
         <v>175.9</v>
       </c>
-      <c r="J214" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K214" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -10441,14 +8727,6 @@
       <c r="I215" t="n">
         <v>175.9</v>
       </c>
-      <c r="J215" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K215" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -10488,14 +8766,6 @@
       <c r="I216" t="n">
         <v>179.9</v>
       </c>
-      <c r="J216" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K216" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -10535,14 +8805,6 @@
       <c r="I217" t="n">
         <v>176.9</v>
       </c>
-      <c r="J217" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K217" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -10582,14 +8844,6 @@
       <c r="I218" t="n">
         <v>176.9</v>
       </c>
-      <c r="J218" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K218" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -10629,14 +8883,6 @@
       <c r="I219" t="n">
         <v>180.9</v>
       </c>
-      <c r="J219" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K219" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -10676,14 +8922,6 @@
       <c r="I220" t="n">
         <v>192.9</v>
       </c>
-      <c r="J220" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K220" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -10723,14 +8961,6 @@
       <c r="I221" t="n">
         <v>180.9</v>
       </c>
-      <c r="J221" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K221" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -10770,14 +9000,6 @@
       <c r="I222" t="n">
         <v>173.9</v>
       </c>
-      <c r="J222" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K222" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -10817,14 +9039,6 @@
       <c r="I223" t="n">
         <v>179.9</v>
       </c>
-      <c r="J223" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K223" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -10864,14 +9078,6 @@
       <c r="I224" t="n">
         <v>176.9</v>
       </c>
-      <c r="J224" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K224" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -10911,14 +9117,6 @@
       <c r="I225" t="n">
         <v>179.9</v>
       </c>
-      <c r="J225" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K225" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -10952,14 +9150,6 @@
       </c>
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr">
-        <is>
-          <t>evening</t>
-        </is>
-      </c>
-      <c r="K226" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -10999,14 +9189,6 @@
       <c r="I227" t="n">
         <v>190.9</v>
       </c>
-      <c r="J227" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K227" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -11040,14 +9222,6 @@
       </c>
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="K228" s="2" t="n">
-        <v>45808</v>
-      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -11087,14 +9261,6 @@
       <c r="I229" t="n">
         <v>190.9</v>
       </c>
-      <c r="J229" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K229" s="2" t="n">
-        <v>45809</v>
-      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -11130,8 +9296,6 @@
       </c>
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -11173,8 +9337,6 @@
       <c r="I231" t="n">
         <v>185.9</v>
       </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -11204,8 +9366,6 @@
       <c r="G232" t="inlineStr"/>
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -11247,8 +9407,6 @@
       <c r="I233" t="n">
         <v>182.9</v>
       </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -11290,8 +9448,6 @@
       <c r="I234" t="n">
         <v>190.9</v>
       </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -11333,8 +9489,6 @@
       <c r="I235" t="n">
         <v>186.9</v>
       </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -11376,8 +9530,6 @@
       <c r="I236" t="n">
         <v>186.9</v>
       </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -11419,8 +9571,6 @@
       <c r="I237" t="n">
         <v>190.9</v>
       </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -11462,8 +9612,6 @@
       <c r="I238" t="n">
         <v>181.9</v>
       </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -11499,8 +9647,6 @@
       </c>
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -11536,8 +9682,6 @@
       </c>
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -11579,8 +9723,6 @@
       <c r="I241" t="n">
         <v>185.9</v>
       </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -11622,8 +9764,6 @@
       <c r="I242" t="n">
         <v>181.9</v>
       </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -11665,8 +9805,6 @@
       <c r="I243" t="n">
         <v>204.9</v>
       </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -11708,8 +9846,6 @@
       <c r="I244" t="n">
         <v>208.9</v>
       </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -11751,8 +9887,6 @@
       <c r="I245" t="n">
         <v>171.9</v>
       </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -11788,8 +9922,6 @@
       </c>
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -11831,8 +9963,6 @@
       <c r="I247" t="n">
         <v>200.9</v>
       </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -11874,8 +10004,6 @@
       <c r="I248" t="n">
         <v>174.9</v>
       </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -11917,8 +10045,6 @@
       <c r="I249" t="n">
         <v>208.9</v>
       </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -11960,8 +10086,6 @@
       <c r="I250" t="n">
         <v>172.9</v>
       </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -11997,8 +10121,6 @@
       </c>
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -12040,8 +10162,6 @@
       <c r="I252" t="n">
         <v>190.9</v>
       </c>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -12083,8 +10203,6 @@
       <c r="I253" t="n">
         <v>181.9</v>
       </c>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -12120,8 +10238,6 @@
       </c>
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -12163,8 +10279,6 @@
       <c r="I255" t="n">
         <v>191.9</v>
       </c>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -12206,8 +10320,6 @@
       <c r="I256" t="n">
         <v>175.9</v>
       </c>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -12249,8 +10361,6 @@
       <c r="I257" t="n">
         <v>177.9</v>
       </c>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -12292,8 +10402,6 @@
       <c r="I258" t="n">
         <v>188.9</v>
       </c>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -12335,8 +10443,6 @@
       <c r="I259" t="n">
         <v>176.9</v>
       </c>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -12378,8 +10484,6 @@
       <c r="I260" t="n">
         <v>199.9</v>
       </c>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -12421,8 +10525,6 @@
       <c r="I261" t="n">
         <v>191.9</v>
       </c>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -12464,8 +10566,6 @@
       <c r="I262" t="n">
         <v>177.9</v>
       </c>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -12507,8 +10607,6 @@
       <c r="I263" t="n">
         <v>181.9</v>
       </c>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -12550,8 +10648,6 @@
       <c r="I264" t="n">
         <v>182.9</v>
       </c>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -12593,8 +10689,6 @@
       <c r="I265" t="n">
         <v>192.9</v>
       </c>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -12636,8 +10730,6 @@
       <c r="I266" t="n">
         <v>186.9</v>
       </c>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -12679,8 +10771,6 @@
       <c r="I267" t="n">
         <v>200.9</v>
       </c>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -12722,8 +10812,6 @@
       <c r="I268" t="n">
         <v>187.9</v>
       </c>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -12765,8 +10853,6 @@
       <c r="I269" t="n">
         <v>191.9</v>
       </c>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -12808,8 +10894,6 @@
       <c r="I270" t="n">
         <v>171.9</v>
       </c>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -12851,8 +10935,6 @@
       <c r="I271" t="n">
         <v>183.9</v>
       </c>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -12894,8 +10976,6 @@
       <c r="I272" t="n">
         <v>179.9</v>
       </c>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -12937,8 +11017,6 @@
       <c r="I273" t="n">
         <v>200.9</v>
       </c>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -12980,8 +11058,6 @@
       <c r="I274" t="n">
         <v>181.9</v>
       </c>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -13023,8 +11099,6 @@
       <c r="I275" t="n">
         <v>189.9</v>
       </c>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -13066,8 +11140,6 @@
       <c r="I276" t="n">
         <v>173.9</v>
       </c>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -13109,8 +11181,6 @@
       <c r="I277" t="n">
         <v>173.9</v>
       </c>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -13152,8 +11222,6 @@
       <c r="I278" t="n">
         <v>178.9</v>
       </c>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -13195,8 +11263,6 @@
       <c r="I279" t="n">
         <v>189.9</v>
       </c>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -13238,8 +11304,6 @@
       <c r="I280" t="n">
         <v>173.9</v>
       </c>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -13281,8 +11345,6 @@
       <c r="I281" t="n">
         <v>191.9</v>
       </c>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -13324,8 +11386,6 @@
       <c r="I282" t="n">
         <v>179.9</v>
       </c>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -13367,8 +11427,6 @@
       <c r="I283" t="n">
         <v>192.7</v>
       </c>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -13410,8 +11468,6 @@
       <c r="I284" t="n">
         <v>204.9</v>
       </c>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -13453,8 +11509,6 @@
       <c r="I285" t="n">
         <v>194.9</v>
       </c>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -13496,8 +11550,6 @@
       <c r="I286" t="n">
         <v>200.9</v>
       </c>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -13539,8 +11591,6 @@
       <c r="I287" t="n">
         <v>192.9</v>
       </c>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -13582,8 +11632,6 @@
       <c r="I288" t="n">
         <v>184.9</v>
       </c>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -13625,8 +11673,6 @@
       <c r="I289" t="n">
         <v>202.9</v>
       </c>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -13668,8 +11714,6 @@
       <c r="I290" t="n">
         <v>202.9</v>
       </c>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -13711,8 +11755,6 @@
       <c r="I291" t="n">
         <v>194.9</v>
       </c>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -13754,8 +11796,6 @@
       <c r="I292" t="n">
         <v>191.9</v>
       </c>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -13797,8 +11837,6 @@
       <c r="I293" t="n">
         <v>170.9</v>
       </c>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -13840,8 +11878,6 @@
       <c r="I294" t="n">
         <v>171.9</v>
       </c>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -13883,8 +11919,6 @@
       <c r="I295" t="n">
         <v>173.9</v>
       </c>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -13926,8 +11960,6 @@
       <c r="I296" t="n">
         <v>179.9</v>
       </c>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -13969,8 +12001,6 @@
       <c r="I297" t="n">
         <v>200.9</v>
       </c>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -14012,8 +12042,6 @@
       <c r="I298" t="n">
         <v>173.9</v>
       </c>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -14055,8 +12083,6 @@
       <c r="I299" t="n">
         <v>173.9</v>
       </c>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -14098,8 +12124,6 @@
       <c r="I300" t="n">
         <v>181.9</v>
       </c>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -14141,8 +12165,6 @@
       <c r="I301" t="n">
         <v>176.9</v>
       </c>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -14184,8 +12206,6 @@
       <c r="I302" t="n">
         <v>179.9</v>
       </c>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -14227,8 +12247,6 @@
       <c r="I303" t="n">
         <v>204.9</v>
       </c>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -14270,8 +12288,6 @@
       <c r="I304" t="n">
         <v>189.9</v>
       </c>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -14313,8 +12329,6 @@
       <c r="I305" t="n">
         <v>171.9</v>
       </c>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -14356,8 +12370,6 @@
       <c r="I306" t="n">
         <v>173.9</v>
       </c>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -14399,8 +12411,6 @@
       <c r="I307" t="n">
         <v>208.9</v>
       </c>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -14442,8 +12452,6 @@
       <c r="I308" t="n">
         <v>183.9</v>
       </c>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -14485,8 +12493,6 @@
       <c r="I309" t="n">
         <v>184.9</v>
       </c>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -14522,8 +12528,6 @@
       </c>
       <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -14565,8 +12569,6 @@
       <c r="I311" t="n">
         <v>185.9</v>
       </c>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -14596,8 +12598,6 @@
       <c r="G312" t="inlineStr"/>
       <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -14639,8 +12639,6 @@
       <c r="I313" t="n">
         <v>182.9</v>
       </c>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -14682,8 +12680,6 @@
       <c r="I314" t="n">
         <v>190.9</v>
       </c>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -14725,8 +12721,6 @@
       <c r="I315" t="n">
         <v>186.9</v>
       </c>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -14768,8 +12762,6 @@
       <c r="I316" t="n">
         <v>186.9</v>
       </c>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -14811,8 +12803,6 @@
       <c r="I317" t="n">
         <v>190.9</v>
       </c>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -14854,8 +12844,6 @@
       <c r="I318" t="n">
         <v>181.9</v>
       </c>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -14891,8 +12879,6 @@
       </c>
       <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -14928,8 +12914,6 @@
       </c>
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -14971,8 +12955,6 @@
       <c r="I321" t="n">
         <v>185.9</v>
       </c>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -15014,8 +12996,6 @@
       <c r="I322" t="n">
         <v>181.9</v>
       </c>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -15057,8 +13037,6 @@
       <c r="I323" t="n">
         <v>204.9</v>
       </c>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -15100,8 +13078,6 @@
       <c r="I324" t="n">
         <v>208.9</v>
       </c>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -15143,8 +13119,6 @@
       <c r="I325" t="n">
         <v>171.9</v>
       </c>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -15180,8 +13154,6 @@
       </c>
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -15223,8 +13195,6 @@
       <c r="I327" t="n">
         <v>200.9</v>
       </c>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -15266,8 +13236,6 @@
       <c r="I328" t="n">
         <v>174.9</v>
       </c>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -15309,8 +13277,6 @@
       <c r="I329" t="n">
         <v>208.9</v>
       </c>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -15352,8 +13318,6 @@
       <c r="I330" t="n">
         <v>172.9</v>
       </c>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -15389,8 +13353,6 @@
       </c>
       <c r="H331" t="inlineStr"/>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -15432,8 +13394,6 @@
       <c r="I332" t="n">
         <v>190.9</v>
       </c>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -15475,8 +13435,6 @@
       <c r="I333" t="n">
         <v>181.9</v>
       </c>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -15512,8 +13470,6 @@
       </c>
       <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -15555,8 +13511,6 @@
       <c r="I335" t="n">
         <v>191.9</v>
       </c>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -15598,8 +13552,6 @@
       <c r="I336" t="n">
         <v>175.9</v>
       </c>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -15641,8 +13593,6 @@
       <c r="I337" t="n">
         <v>177.9</v>
       </c>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -15684,8 +13634,6 @@
       <c r="I338" t="n">
         <v>188.9</v>
       </c>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -15727,8 +13675,6 @@
       <c r="I339" t="n">
         <v>176.9</v>
       </c>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -15770,8 +13716,6 @@
       <c r="I340" t="n">
         <v>199.9</v>
       </c>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -15813,8 +13757,6 @@
       <c r="I341" t="n">
         <v>191.9</v>
       </c>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -15856,8 +13798,6 @@
       <c r="I342" t="n">
         <v>177.9</v>
       </c>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -15899,8 +13839,6 @@
       <c r="I343" t="n">
         <v>181.9</v>
       </c>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -15942,8 +13880,6 @@
       <c r="I344" t="n">
         <v>182.9</v>
       </c>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -15985,8 +13921,6 @@
       <c r="I345" t="n">
         <v>192.9</v>
       </c>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -16028,8 +13962,6 @@
       <c r="I346" t="n">
         <v>186.9</v>
       </c>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -16071,8 +14003,6 @@
       <c r="I347" t="n">
         <v>200.9</v>
       </c>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -16114,8 +14044,6 @@
       <c r="I348" t="n">
         <v>187.9</v>
       </c>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -16157,8 +14085,6 @@
       <c r="I349" t="n">
         <v>191.9</v>
       </c>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -16200,8 +14126,6 @@
       <c r="I350" t="n">
         <v>171.9</v>
       </c>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -16243,8 +14167,6 @@
       <c r="I351" t="n">
         <v>183.9</v>
       </c>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -16286,8 +14208,6 @@
       <c r="I352" t="n">
         <v>179.9</v>
       </c>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -16329,8 +14249,6 @@
       <c r="I353" t="n">
         <v>200.9</v>
       </c>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -16372,8 +14290,6 @@
       <c r="I354" t="n">
         <v>181.9</v>
       </c>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -16415,8 +14331,6 @@
       <c r="I355" t="n">
         <v>189.9</v>
       </c>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -16458,8 +14372,6 @@
       <c r="I356" t="n">
         <v>173.9</v>
       </c>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -16501,8 +14413,6 @@
       <c r="I357" t="n">
         <v>173.9</v>
       </c>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -16544,8 +14454,6 @@
       <c r="I358" t="n">
         <v>178.9</v>
       </c>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -16587,8 +14495,6 @@
       <c r="I359" t="n">
         <v>189.9</v>
       </c>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -16630,8 +14536,6 @@
       <c r="I360" t="n">
         <v>173.9</v>
       </c>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -16673,8 +14577,6 @@
       <c r="I361" t="n">
         <v>191.9</v>
       </c>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -16716,8 +14618,6 @@
       <c r="I362" t="n">
         <v>179.9</v>
       </c>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -16759,8 +14659,6 @@
       <c r="I363" t="n">
         <v>192.7</v>
       </c>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -16802,8 +14700,6 @@
       <c r="I364" t="n">
         <v>204.9</v>
       </c>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -16845,8 +14741,6 @@
       <c r="I365" t="n">
         <v>194.9</v>
       </c>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -16888,8 +14782,6 @@
       <c r="I366" t="n">
         <v>200.9</v>
       </c>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -16931,8 +14823,6 @@
       <c r="I367" t="n">
         <v>192.9</v>
       </c>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -16974,8 +14864,6 @@
       <c r="I368" t="n">
         <v>184.9</v>
       </c>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -17017,14 +14905,10 @@
       <c r="I369" t="n">
         <v>202.9</v>
       </c>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
     </row>
     <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>65515</t>
-        </is>
+      <c r="A370" t="n">
+        <v>65515</v>
       </c>
       <c r="B370" t="inlineStr">
         <is>
@@ -17062,14 +14946,10 @@
       <c r="I370" t="n">
         <v>202.9</v>
       </c>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
     </row>
     <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>77205</t>
-        </is>
+      <c r="A371" t="n">
+        <v>77205</v>
       </c>
       <c r="B371" t="inlineStr">
         <is>
@@ -17107,14 +14987,10 @@
       <c r="I371" t="n">
         <v>194.9</v>
       </c>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
     </row>
     <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>77223</t>
-        </is>
+      <c r="A372" t="n">
+        <v>77223</v>
       </c>
       <c r="B372" t="inlineStr">
         <is>
@@ -17152,14 +15028,10 @@
       <c r="I372" t="n">
         <v>191.9</v>
       </c>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
     </row>
     <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>65514</t>
-        </is>
+      <c r="A373" t="n">
+        <v>65514</v>
       </c>
       <c r="B373" t="inlineStr">
         <is>
@@ -17197,14 +15069,10 @@
       <c r="I373" t="n">
         <v>170.9</v>
       </c>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
     </row>
     <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>77232</t>
-        </is>
+      <c r="A374" t="n">
+        <v>77232</v>
       </c>
       <c r="B374" t="inlineStr">
         <is>
@@ -17242,14 +15110,10 @@
       <c r="I374" t="n">
         <v>171.9</v>
       </c>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
     </row>
     <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>77202</t>
-        </is>
+      <c r="A375" t="n">
+        <v>77202</v>
       </c>
       <c r="B375" t="inlineStr">
         <is>
@@ -17287,14 +15151,10 @@
       <c r="I375" t="n">
         <v>173.9</v>
       </c>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
     </row>
     <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>86650</t>
-        </is>
+      <c r="A376" t="n">
+        <v>86650</v>
       </c>
       <c r="B376" t="inlineStr">
         <is>
@@ -17332,14 +15192,10 @@
       <c r="I376" t="n">
         <v>179.9</v>
       </c>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
     </row>
     <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>77218</t>
-        </is>
+      <c r="A377" t="n">
+        <v>77218</v>
       </c>
       <c r="B377" t="inlineStr">
         <is>
@@ -17377,14 +15233,10 @@
       <c r="I377" t="n">
         <v>200.9</v>
       </c>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
     </row>
     <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>77243</t>
-        </is>
+      <c r="A378" t="n">
+        <v>77243</v>
       </c>
       <c r="B378" t="inlineStr">
         <is>
@@ -17422,14 +15274,10 @@
       <c r="I378" t="n">
         <v>173.9</v>
       </c>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
     </row>
     <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>77235</t>
-        </is>
+      <c r="A379" t="n">
+        <v>77235</v>
       </c>
       <c r="B379" t="inlineStr">
         <is>
@@ -17467,14 +15315,10 @@
       <c r="I379" t="n">
         <v>173.9</v>
       </c>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
     </row>
     <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>77228</t>
-        </is>
+      <c r="A380" t="n">
+        <v>77228</v>
       </c>
       <c r="B380" t="inlineStr">
         <is>
@@ -17512,14 +15356,10 @@
       <c r="I380" t="n">
         <v>181.9</v>
       </c>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
     </row>
     <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>69163</t>
-        </is>
+      <c r="A381" t="n">
+        <v>69163</v>
       </c>
       <c r="B381" t="inlineStr">
         <is>
@@ -17557,14 +15397,10 @@
       <c r="I381" t="n">
         <v>176.9</v>
       </c>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
     </row>
     <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>109205</t>
-        </is>
+      <c r="A382" t="n">
+        <v>109205</v>
       </c>
       <c r="B382" t="inlineStr">
         <is>
@@ -17602,14 +15438,10 @@
       <c r="I382" t="n">
         <v>179.9</v>
       </c>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
     </row>
     <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>65512</t>
-        </is>
+      <c r="A383" t="n">
+        <v>65512</v>
       </c>
       <c r="B383" t="inlineStr">
         <is>
@@ -17647,14 +15479,10 @@
       <c r="I383" t="n">
         <v>204.9</v>
       </c>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
     </row>
     <row r="384">
-      <c r="A384" t="inlineStr">
-        <is>
-          <t>83384</t>
-        </is>
+      <c r="A384" t="n">
+        <v>83384</v>
       </c>
       <c r="B384" t="inlineStr">
         <is>
@@ -17692,14 +15520,10 @@
       <c r="I384" t="n">
         <v>189.9</v>
       </c>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
     </row>
     <row r="385">
-      <c r="A385" t="inlineStr">
-        <is>
-          <t>77015</t>
-        </is>
+      <c r="A385" t="n">
+        <v>77015</v>
       </c>
       <c r="B385" t="inlineStr">
         <is>
@@ -17737,14 +15561,10 @@
       <c r="I385" t="n">
         <v>171.9</v>
       </c>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
     </row>
     <row r="386">
-      <c r="A386" t="inlineStr">
-        <is>
-          <t>107728</t>
-        </is>
+      <c r="A386" t="n">
+        <v>107728</v>
       </c>
       <c r="B386" t="inlineStr">
         <is>
@@ -17782,14 +15602,10 @@
       <c r="I386" t="n">
         <v>173.9</v>
       </c>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
     </row>
     <row r="387">
-      <c r="A387" t="inlineStr">
-        <is>
-          <t>65572</t>
-        </is>
+      <c r="A387" t="n">
+        <v>65572</v>
       </c>
       <c r="B387" t="inlineStr">
         <is>
@@ -17827,14 +15643,10 @@
       <c r="I387" t="n">
         <v>208.9</v>
       </c>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
     </row>
     <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>65511</t>
-        </is>
+      <c r="A388" t="n">
+        <v>65511</v>
       </c>
       <c r="B388" t="inlineStr">
         <is>
@@ -17872,14 +15684,10 @@
       <c r="I388" t="n">
         <v>183.9</v>
       </c>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
     </row>
     <row r="389">
-      <c r="A389" t="inlineStr">
-        <is>
-          <t>65556</t>
-        </is>
+      <c r="A389" t="n">
+        <v>65556</v>
       </c>
       <c r="B389" t="inlineStr">
         <is>
@@ -17917,8 +15725,2458 @@
       <c r="I389" t="n">
         <v>184.9</v>
       </c>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>65542</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>Chevron</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>3250 MacDonald St</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.2573819, 'Longitude': -123.1680407}</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:06:47</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>2025-06-01T17:47:51.611Z</t>
+        </is>
+      </c>
+      <c r="G390" t="n">
+        <v>161.9</v>
+      </c>
+      <c r="H390" t="inlineStr"/>
+      <c r="I390" t="inlineStr"/>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>65533</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>Chevron</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>4615 Arbutus St</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.2449719, 'Longitude': -123.1540385}</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:06:47</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>2025-06-01T02:10:53.532Z</t>
+        </is>
+      </c>
+      <c r="G391" t="n">
+        <v>160.9</v>
+      </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>2025-06-01T02:10:53.563Z</t>
+        </is>
+      </c>
+      <c r="I391" t="n">
+        <v>185.9</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>83068</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>Esso</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>3205 Arbutus St</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.256927568207, 'Longitude': -123.153288960457}</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:06:47</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr"/>
+      <c r="G392" t="inlineStr"/>
+      <c r="H392" t="inlineStr"/>
+      <c r="I392" t="inlineStr"/>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>65562</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>Petro-Canada</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>2808 W Broadway</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.263883932125, 'Longitude': -123.168604373932}</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:06:47</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>2025-06-01T01:23:39.355Z</t>
+        </is>
+      </c>
+      <c r="G393" t="n">
+        <v>156.9</v>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>2025-05-31T20:01:03.497Z</t>
+        </is>
+      </c>
+      <c r="I393" t="n">
+        <v>182.9</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>113305</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>Shell</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>3596 W 41st Ave</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.234385296079, 'Longitude': -123.184762001038}</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:06:47</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>2025-05-31T23:56:16.495Z</t>
+        </is>
+      </c>
+      <c r="G394" t="n">
+        <v>160.9</v>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>2025-05-31T23:57:11.768Z</t>
+        </is>
+      </c>
+      <c r="I394" t="n">
+        <v>190.9</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>65570</v>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>Shell</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>2103 W Broadway</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.264135981257, 'Longitude': -123.153326511383}</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:06:47</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>2025-06-01T16:56:18.269Z</t>
+        </is>
+      </c>
+      <c r="G395" t="n">
+        <v>159.9</v>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>2025-06-01T16:56:18.300Z</t>
+        </is>
+      </c>
+      <c r="I395" t="n">
+        <v>189.9</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>65554</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>Esso</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>1795 W Broadway</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.264037962303, 'Longitude': -123.145408630371}</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:06:47</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>2025-06-01T15:49:37.940Z</t>
+        </is>
+      </c>
+      <c r="G396" t="n">
+        <v>160.9</v>
+      </c>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>2025-06-01T05:11:58.326Z</t>
+        </is>
+      </c>
+      <c r="I396" t="n">
+        <v>186.9</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>65571</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>Shell</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>4314 W 10th Ave</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.263533861752, 'Longitude': -123.203430175781}</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:06:47</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>2025-05-31T16:36:48.315Z</t>
+        </is>
+      </c>
+      <c r="G397" t="n">
+        <v>160.9</v>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>2025-05-31T16:36:48.330Z</t>
+        </is>
+      </c>
+      <c r="I397" t="n">
+        <v>190.9</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>65565</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>Petro-Canada</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>1896 W 4th Ave</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.267881559667, 'Longitude': -123.14772605896}</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:06:47</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>2025-06-01T17:29:05.308Z</t>
+        </is>
+      </c>
+      <c r="G398" t="n">
+        <v>159.9</v>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>2025-06-01T05:42:32.977Z</t>
+        </is>
+      </c>
+      <c r="I398" t="n">
+        <v>181.9</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>32376</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>Shell</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>1503 W 41st Ave</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.234634576953, 'Longitude': -123.139971792698}</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:06:47</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>2025-06-01T17:04:00.821Z</t>
+        </is>
+      </c>
+      <c r="G399" t="n">
+        <v>160.9</v>
+      </c>
+      <c r="H399" t="inlineStr"/>
+      <c r="I399" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>65549</v>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>Esso</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>5702 Granville St</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.234036184118, 'Longitude': -123.139244914055}</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:06:47</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>2025-06-01T17:03:51.315Z</t>
+        </is>
+      </c>
+      <c r="G400" t="n">
+        <v>160.9</v>
+      </c>
+      <c r="H400" t="inlineStr"/>
+      <c r="I400" t="inlineStr"/>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>65543</v>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>Chevron</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>1900 Burrard St</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.2685375, 'Longitude': -123.1453067}</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:06:47</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>2025-06-01T17:29:10.832Z</t>
+        </is>
+      </c>
+      <c r="G401" t="n">
+        <v>159.9</v>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>2025-06-01T05:12:31.316Z</t>
+        </is>
+      </c>
+      <c r="I401" t="n">
+        <v>185.9</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>65563</v>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>Petro-Canada</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>1743 Burrard St</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.270429790667, 'Longitude': -123.145886063576}</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:06:47</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>2025-06-01T17:28:26.360Z</t>
+        </is>
+      </c>
+      <c r="G402" t="n">
+        <v>159.9</v>
+      </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>2025-06-01T05:12:23.017Z</t>
+        </is>
+      </c>
+      <c r="I402" t="n">
+        <v>181.9</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>72747</v>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>Esso</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>1010 W King Edward Ave</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.249188, 'Longitude': -123.127767}</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:06:47</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>2025-06-01T16:41:33.293Z</t>
+        </is>
+      </c>
+      <c r="G403" t="n">
+        <v>161.9</v>
+      </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>2025-06-01T05:11:57.216Z</t>
+        </is>
+      </c>
+      <c r="I403" t="n">
+        <v>204.9</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>32375</v>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>Shell</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>4110 Oak St</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.24894071957, 'Longitude': -123.127040863037}</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:06:47</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>2025-06-01T06:38:02.410Z</t>
+        </is>
+      </c>
+      <c r="G404" t="n">
+        <v>146.9</v>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>2025-06-01T02:35:00.276Z</t>
+        </is>
+      </c>
+      <c r="I404" t="n">
+        <v>208.9</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>65564</v>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>Petro-Canada</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>5680 Oak St</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.234217162181, 'Longitude': -123.127684593201}</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:06:47</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>2025-06-01T17:34:52.115Z</t>
+        </is>
+      </c>
+      <c r="G405" t="n">
+        <v>159.9</v>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>2025-06-01T13:34:26.116Z</t>
+        </is>
+      </c>
+      <c r="I405" t="n">
+        <v>171.9</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>32372</v>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>Esso</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>6525 Oak St</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.226226639452, 'Longitude': -123.128687739372}</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:06:47</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>2025-06-01T15:10:02.777Z</t>
+        </is>
+      </c>
+      <c r="G406" t="n">
+        <v>161.9</v>
+      </c>
+      <c r="H406" t="inlineStr"/>
+      <c r="I406" t="inlineStr"/>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>9707</v>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>Esso</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>1205 Burrard St</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.279145231489, 'Longitude': -123.12982365489}</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:06:47</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>2025-06-01T16:47:47.392Z</t>
+        </is>
+      </c>
+      <c r="G407" t="n">
+        <v>154.9</v>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>2025-06-01T01:39:50.050Z</t>
+        </is>
+      </c>
+      <c r="I407" t="n">
+        <v>200.9</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>65566</v>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>Petro-Canada</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>8072 Granville St</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.212495055855, 'Longitude': -123.14013004303}</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:06:47</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>2025-06-01T16:58:11.771Z</t>
+        </is>
+      </c>
+      <c r="G408" t="n">
+        <v>161.9</v>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>2025-06-01T13:34:18.256Z</t>
+        </is>
+      </c>
+      <c r="I408" t="n">
+        <v>174.9</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>65572</v>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>Shell</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>8686 Granville St</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.207280329467, 'Longitude': -123.140280246735}</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:06:47</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>2025-05-31T07:05:25.815Z</t>
+        </is>
+      </c>
+      <c r="G409" t="n">
+        <v>176.9</v>
+      </c>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>2025-05-31T07:05:25.925Z</t>
+        </is>
+      </c>
+      <c r="I409" t="n">
+        <v>208.9</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>65558</v>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>Petro-Canada</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>1390 E 33rd Ave</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.240045470021, 'Longitude': -123.076765537262}</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:09:38</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>2025-06-01T17:21:37.540Z</t>
+        </is>
+      </c>
+      <c r="G410" t="n">
+        <v>161.9</v>
+      </c>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>2025-06-01T08:32:06.533Z</t>
+        </is>
+      </c>
+      <c r="I410" t="n">
+        <v>172.9</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>83394</v>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>Esso</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>4064 Fraser St</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.248864, 'Longitude': -123.09002}</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:09:38</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>2025-06-01T06:21:26.209Z</t>
+        </is>
+      </c>
+      <c r="G411" t="n">
+        <v>159.9</v>
+      </c>
+      <c r="H411" t="inlineStr"/>
+      <c r="I411" t="inlineStr"/>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>65573</v>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>Shell</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>1396 E 41st Ave</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.232593005895, 'Longitude': -123.07728856802}</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:09:38</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>2025-06-01T18:01:16.201Z</t>
+        </is>
+      </c>
+      <c r="G412" t="n">
+        <v>159.9</v>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>2025-05-31T09:55:02.588Z</t>
+        </is>
+      </c>
+      <c r="I412" t="n">
+        <v>190.9</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>80714</v>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>Husky</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>4933 Victoria Dr</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.2397388, 'Longitude': -123.065748}</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:09:38</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>2025-06-01T17:19:33.201Z</t>
+        </is>
+      </c>
+      <c r="G413" t="n">
+        <v>159.9</v>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>2025-06-01T16:13:16.235Z</t>
+        </is>
+      </c>
+      <c r="I413" t="n">
+        <v>181.9</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>65552</v>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>Esso</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>2001 Kingsway</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.245312771918, 'Longitude': -123.064910173416}</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:09:38</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>2025-06-01T16:31:06.436Z</t>
+        </is>
+      </c>
+      <c r="G414" t="n">
+        <v>159.9</v>
+      </c>
+      <c r="H414" t="inlineStr"/>
+      <c r="I414" t="inlineStr"/>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>65538</v>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Chevron</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>5252 Victoria Dr</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.2372145, 'Longitude': -123.0650857}</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:09:38</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>2025-06-01T16:53:09.722Z</t>
+        </is>
+      </c>
+      <c r="G415" t="n">
+        <v>159.9</v>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>2025-06-01T16:11:33.835Z</t>
+        </is>
+      </c>
+      <c r="I415" t="n">
+        <v>191.9</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>90814</v>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>Petro-Canada</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>2277 Kingsway</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.242132845692, 'Longitude': -123.058204650879}</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:09:38</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>2025-06-01T15:59:10.588Z</t>
+        </is>
+      </c>
+      <c r="G416" t="n">
+        <v>159.9</v>
+      </c>
+      <c r="H416" t="inlineStr">
+        <is>
+          <t>2025-06-01T07:19:51.188Z</t>
+        </is>
+      </c>
+      <c r="I416" t="n">
+        <v>175.9</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>39768</v>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Chevron</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>5736 Main St</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.2325708, 'Longitude': -123.1010069}</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:09:38</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>2025-06-01T07:29:08.825Z</t>
+        </is>
+      </c>
+      <c r="G417" t="n">
+        <v>151.9</v>
+      </c>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>2025-06-01T05:12:17.857Z</t>
+        </is>
+      </c>
+      <c r="I417" t="n">
+        <v>177.9</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>9710</v>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Shell</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>1295 E 12th Ave</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.259878978744, 'Longitude': -123.078074455261}</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:09:38</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>2025-06-01T17:55:30.651Z</t>
+        </is>
+      </c>
+      <c r="G418" t="n">
+        <v>157.9</v>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>2025-06-01T15:44:50.961Z</t>
+        </is>
+      </c>
+      <c r="I418" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>99146</v>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>Super Save Gas</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>1317 E 12th Ave</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.259758544957, 'Longitude': -123.077272474766}</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:09:38</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>2025-06-01T17:55:54.443Z</t>
+        </is>
+      </c>
+      <c r="G419" t="n">
+        <v>143.9</v>
+      </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>2025-06-01T07:20:06.615Z</t>
+        </is>
+      </c>
+      <c r="I419" t="n">
+        <v>176.9</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>65560</v>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>Petro-Canada</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>1289 E Broadway</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.262693682723, 'Longitude': -123.078117370605}</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:09:38</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>2025-06-01T17:28:56.916Z</t>
+        </is>
+      </c>
+      <c r="G420" t="n">
+        <v>157.9</v>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>2025-06-01T07:14:23.876Z</t>
+        </is>
+      </c>
+      <c r="I420" t="n">
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>65557</v>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>Chevron</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>2120 Grandview Hwy S</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.2591601, 'Longitude': -123.0617495}</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:09:38</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>2025-06-01T08:31:50.639Z</t>
+        </is>
+      </c>
+      <c r="G421" t="n">
+        <v>150.9</v>
+      </c>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>2025-06-01T07:19:24.708Z</t>
+        </is>
+      </c>
+      <c r="I421" t="n">
+        <v>191.9</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>71502</v>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Chevron</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>2748 Main St</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.2604441, 'Longitude': -123.1005869}</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:09:38</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>2025-06-01T08:27:47.662Z</t>
+        </is>
+      </c>
+      <c r="G422" t="n">
+        <v>151.9</v>
+      </c>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>2025-06-01T07:15:28.765Z</t>
+        </is>
+      </c>
+      <c r="I422" t="n">
+        <v>177.9</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>65559</v>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Petro-Canada</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>6502 Victoria Dr</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.224996944057, 'Longitude': -123.065521717072}</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:09:38</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>2025-06-01T15:17:06.105Z</t>
+        </is>
+      </c>
+      <c r="G423" t="n">
+        <v>161.9</v>
+      </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>2025-06-01T07:20:11.563Z</t>
+        </is>
+      </c>
+      <c r="I423" t="n">
+        <v>181.9</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>89943</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Chevron</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>6808 Victoria Dr</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.2220242, 'Longitude': -123.0654247}</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:09:38</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>2025-06-01T05:45:52.270Z</t>
+        </is>
+      </c>
+      <c r="G424" t="n">
+        <v>156.9</v>
+      </c>
+      <c r="H424" t="inlineStr">
+        <is>
+          <t>2025-06-01T05:45:52.301Z</t>
+        </is>
+      </c>
+      <c r="I424" t="n">
+        <v>182.9</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>86880</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Petro-Canada</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>7282 Knight St</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.218250007984, 'Longitude': -123.076816499233}</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:09:38</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>2025-06-01T17:43:51.593Z</t>
+        </is>
+      </c>
+      <c r="G425" t="n">
+        <v>159.9</v>
+      </c>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t>2025-06-01T06:49:00.026Z</t>
+        </is>
+      </c>
+      <c r="I425" t="n">
+        <v>192.9</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>65537</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>Chevron</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>2918 Kingsway</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.23608, 'Longitude': -123.0454858}</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:09:38</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>2025-06-01T16:12:50.891Z</t>
+        </is>
+      </c>
+      <c r="G426" t="n">
+        <v>159.9</v>
+      </c>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t>2025-06-01T16:12:50.938Z</t>
+        </is>
+      </c>
+      <c r="I426" t="n">
+        <v>186.9</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>65536</v>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>Chevron</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>7309 Knight St</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.2177761, 'Longitude': -123.0775405}</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:09:38</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>2025-06-01T17:44:16.917Z</t>
+        </is>
+      </c>
+      <c r="G427" t="n">
+        <v>159.9</v>
+      </c>
+      <c r="H427" t="inlineStr">
+        <is>
+          <t>2025-06-01T06:49:13.464Z</t>
+        </is>
+      </c>
+      <c r="I427" t="n">
+        <v>200.9</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>65535</v>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>Chevron</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>2605 E 49th Ave</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.2251291, 'Longitude': -123.0545048}</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:09:38</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>2025-06-01T15:18:20.386Z</t>
+        </is>
+      </c>
+      <c r="G428" t="n">
+        <v>159.9</v>
+      </c>
+      <c r="H428" t="inlineStr">
+        <is>
+          <t>2025-06-01T15:18:20.433Z</t>
+        </is>
+      </c>
+      <c r="I428" t="n">
+        <v>185.9</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>65539</v>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>Chevron</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>2902 Grandview Hwy</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.2579053, 'Longitude': -123.0438464}</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:09:38</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>2025-06-01T07:15:39.400Z</t>
+        </is>
+      </c>
+      <c r="G429" t="n">
+        <v>150.9</v>
+      </c>
+      <c r="H429" t="inlineStr">
+        <is>
+          <t>2025-06-01T07:15:39.462Z</t>
+        </is>
+      </c>
+      <c r="I429" t="n">
+        <v>191.9</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>77015</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>Super Save Gas</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>6000 No 5 Rd</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.169873456637, 'Longitude': -123.091178619746}</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:12:32</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>2025-06-01T17:33:00.427Z</t>
+        </is>
+      </c>
+      <c r="G430" t="n">
+        <v>157.9</v>
+      </c>
+      <c r="H430" t="inlineStr">
+        <is>
+          <t>2025-06-01T13:33:21.366Z</t>
+        </is>
+      </c>
+      <c r="I430" t="n">
+        <v>171.9</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>65511</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>Chevron</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12011 Bridgeport Rd</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.1923857, 'Longitude': -123.0911072}</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:12:32</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>2025-06-01T17:48:32.519Z</t>
+        </is>
+      </c>
+      <c r="G431" t="n">
+        <v>159.9</v>
+      </c>
+      <c r="H431" t="inlineStr">
+        <is>
+          <t>2025-06-01T08:39:35.945Z</t>
+        </is>
+      </c>
+      <c r="I431" t="n">
+        <v>183.9</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>86650</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>Esso</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>9100 Westminster Hwy</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.169856952787, 'Longitude': -123.123961687088}</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:12:32</t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>2025-06-01T17:58:00.669Z</t>
+        </is>
+      </c>
+      <c r="G432" t="n">
+        <v>159.9</v>
+      </c>
+      <c r="H432" t="inlineStr">
+        <is>
+          <t>2025-06-01T05:57:30.357Z</t>
+        </is>
+      </c>
+      <c r="I432" t="n">
+        <v>179.9</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>77218</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>Shell</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>5511 Garden City Rd</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.173339635958, 'Longitude': -123.124954104424}</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:12:32</t>
+        </is>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>2025-06-01T08:29:51.093Z</t>
+        </is>
+      </c>
+      <c r="G433" t="n">
+        <v>145.9</v>
+      </c>
+      <c r="H433" t="inlineStr">
+        <is>
+          <t>2025-06-01T01:47:40.302Z</t>
+        </is>
+      </c>
+      <c r="I433" t="n">
+        <v>200.9</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>77228</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>Chevron</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>9100 Cambie Rd</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.1843249, 'Longitude': -123.1236078}</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:12:32</t>
+        </is>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>2025-06-01T17:50:34.540Z</t>
+        </is>
+      </c>
+      <c r="G434" t="n">
+        <v>159.9</v>
+      </c>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>2025-06-01T15:59:31.473Z</t>
+        </is>
+      </c>
+      <c r="I434" t="n">
+        <v>181.9</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>83384</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>Esso</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>9060 Bridgeport Rd</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.192001, 'Longitude': -123.124004}</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:12:32</t>
+        </is>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>2025-06-01T16:05:43.118Z</t>
+        </is>
+      </c>
+      <c r="G435" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="H435" t="inlineStr">
+        <is>
+          <t>2025-06-01T16:05:43.227Z</t>
+        </is>
+      </c>
+      <c r="I435" t="n">
+        <v>189.9</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>77202</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>Petro-Canada</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>8151 Granville Ave</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.162989071149, 'Longitude': -123.134229183197}</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:12:32</t>
+        </is>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>2025-06-01T06:36:56.417Z</t>
+        </is>
+      </c>
+      <c r="G436" t="n">
+        <v>144.9</v>
+      </c>
+      <c r="H436" t="inlineStr">
+        <is>
+          <t>2025-06-01T13:33:32.437Z</t>
+        </is>
+      </c>
+      <c r="I436" t="n">
+        <v>173.9</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>77243</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>Mobil</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>4651 No  3 Rd</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.179182137142, 'Longitude': -123.137152791023}</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:12:32</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>2025-06-01T07:08:26.913Z</t>
+        </is>
+      </c>
+      <c r="G437" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="H437" t="inlineStr">
+        <is>
+          <t>2025-06-01T06:33:33.347Z</t>
+        </is>
+      </c>
+      <c r="I437" t="n">
+        <v>173.9</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>83387</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>Petro-Canada</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>710 SE Marine Dr</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.21081995506, 'Longitude': -123.090755939484}</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:12:32</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>2025-06-01T16:31:53.672Z</t>
+        </is>
+      </c>
+      <c r="G438" t="n">
+        <v>159.9</v>
+      </c>
+      <c r="H438" t="inlineStr">
+        <is>
+          <t>2025-06-01T17:19:19.684Z</t>
+        </is>
+      </c>
+      <c r="I438" t="n">
+        <v>172.9</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>65551</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>Esso</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>688 SE Marine Dr</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.210798928329, 'Longitude': -123.09152841568}</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:12:32</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>2025-06-01T17:18:15.740Z</t>
+        </is>
+      </c>
+      <c r="G439" t="n">
+        <v>147.9</v>
+      </c>
+      <c r="H439" t="inlineStr">
+        <is>
+          <t>2025-05-31T22:41:12.850Z</t>
+        </is>
+      </c>
+      <c r="I439" t="n">
+        <v>189.9</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>77235</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>Domo</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4071 No 3 Rd </t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.18409178594, 'Longitude': -123.136823830688}</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:12:32</t>
+        </is>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>2025-06-01T17:21:04.271Z</t>
+        </is>
+      </c>
+      <c r="G440" t="n">
+        <v>159.9</v>
+      </c>
+      <c r="H440" t="inlineStr">
+        <is>
+          <t>2025-06-01T13:33:41.808Z</t>
+        </is>
+      </c>
+      <c r="I440" t="n">
+        <v>173.9</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>82925</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>Mobil</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>350 SE Marine Dr</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.210245, 'Longitude': -123.099328}</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:12:32</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>2025-06-01T04:38:22.123Z</t>
+        </is>
+      </c>
+      <c r="G441" t="n">
+        <v>147.9</v>
+      </c>
+      <c r="H441" t="inlineStr">
+        <is>
+          <t>2025-05-31T22:41:36.541Z</t>
+        </is>
+      </c>
+      <c r="I441" t="n">
+        <v>191.9</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>109205</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>Petro-Canada</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>11991 Steveston Hwy</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.133556536531, 'Longitude': -123.092424273491}</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:12:32</t>
+        </is>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>2025-06-01T05:31:31.114Z</t>
+        </is>
+      </c>
+      <c r="G442" t="n">
+        <v>145.9</v>
+      </c>
+      <c r="H442" t="inlineStr">
+        <is>
+          <t>2025-06-01T13:33:11.500Z</t>
+        </is>
+      </c>
+      <c r="I442" t="n">
+        <v>179.9</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>65540</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>Chevron</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>196 SE Marine Dr</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.2106867, 'Longitude': -123.1027436}</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:12:32</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>2025-06-01T11:42:57.059Z</t>
+        </is>
+      </c>
+      <c r="G443" t="n">
+        <v>147.9</v>
+      </c>
+      <c r="H443" t="inlineStr">
+        <is>
+          <t>2025-05-31T22:41:59.850Z</t>
+        </is>
+      </c>
+      <c r="I443" t="n">
+        <v>192.7</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>65512</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>Chevron</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>11131 No 5 Rd</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.1328393, 'Longitude': -123.0926312}</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:12:32</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>2025-06-01T05:48:20.195Z</t>
+        </is>
+      </c>
+      <c r="G444" t="n">
+        <v>145.9</v>
+      </c>
+      <c r="H444" t="inlineStr">
+        <is>
+          <t>2025-06-01T12:14:35.750Z</t>
+        </is>
+      </c>
+      <c r="I444" t="n">
+        <v>204.9</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>77205</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>Chevron</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7951 No 3 Rd </t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.1558882, 'Longitude': -123.1369625}</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:12:32</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>2025-06-01T17:52:40.777Z</t>
+        </is>
+      </c>
+      <c r="G445" t="n">
+        <v>161.9</v>
+      </c>
+      <c r="H445" t="inlineStr">
+        <is>
+          <t>2025-06-01T00:58:26.467Z</t>
+        </is>
+      </c>
+      <c r="I445" t="n">
+        <v>194.9</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>65536</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>Chevron</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>7309 Knight St</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.2177761, 'Longitude': -123.0775405}</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:12:32</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>2025-06-01T17:44:16.917Z</t>
+        </is>
+      </c>
+      <c r="G446" t="n">
+        <v>159.9</v>
+      </c>
+      <c r="H446" t="inlineStr">
+        <is>
+          <t>2025-06-01T06:49:13.464Z</t>
+        </is>
+      </c>
+      <c r="I446" t="n">
+        <v>200.9</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>86880</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>Petro-Canada</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>7282 Knight St</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.218250007984, 'Longitude': -123.076816499233}</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:12:32</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>2025-06-01T17:43:51.593Z</t>
+        </is>
+      </c>
+      <c r="G447" t="n">
+        <v>159.9</v>
+      </c>
+      <c r="H447" t="inlineStr">
+        <is>
+          <t>2025-06-01T06:49:00.026Z</t>
+        </is>
+      </c>
+      <c r="I447" t="n">
+        <v>192.9</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>65556</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>Esso</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>709 SW Marine Dr</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.20806537721, 'Longitude': -123.123285770416}</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:12:32</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>2025-06-01T15:47:50.559Z</t>
+        </is>
+      </c>
+      <c r="G448" t="n">
+        <v>159.9</v>
+      </c>
+      <c r="H448" t="inlineStr">
+        <is>
+          <t>2025-06-01T15:47:50.623Z</t>
+        </is>
+      </c>
+      <c r="I448" t="n">
+        <v>179.9</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>86937</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>Shell</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>8655 Boundary Rd</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>{'Latitude': 49.20476, 'Longitude': -123.02398}</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>2025-06-02 02:12:32</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>2025-06-01T14:35:32.859Z</t>
+        </is>
+      </c>
+      <c r="G449" t="n">
+        <v>156.9</v>
+      </c>
+      <c r="H449" t="inlineStr">
+        <is>
+          <t>2025-06-01T14:35:32.891Z</t>
+        </is>
+      </c>
+      <c r="I449" t="n">
+        <v>202.9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
